--- a/core/seed_employees_employee.xlsx
+++ b/core/seed_employees_employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.cheng\Documents\Visual Studio Code\Django\p_sys01_repo01\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97795D32-0CEE-463B-85B9-377FD3898194}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB11F0E2-E5E3-4AAF-9301-4B4A8E6E4172}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="646">
   <si>
     <t>REGULAR</t>
   </si>
@@ -82,63 +82,6 @@
     <t>POSITION SPECIALTIES</t>
   </si>
   <si>
-    <t>test id 01</t>
-  </si>
-  <si>
-    <t>test-id-02</t>
-  </si>
-  <si>
-    <t>test-id-03</t>
-  </si>
-  <si>
-    <t>test-id-04</t>
-  </si>
-  <si>
-    <t>test-id-05</t>
-  </si>
-  <si>
-    <t>test-id-06</t>
-  </si>
-  <si>
-    <t>test-id-07</t>
-  </si>
-  <si>
-    <t>test-id-08</t>
-  </si>
-  <si>
-    <t>test-id-09</t>
-  </si>
-  <si>
-    <t>test-id-10</t>
-  </si>
-  <si>
-    <t>test-id-11</t>
-  </si>
-  <si>
-    <t>test-id-12</t>
-  </si>
-  <si>
-    <t>test-id-13</t>
-  </si>
-  <si>
-    <t>test-id-14</t>
-  </si>
-  <si>
-    <t>test-id-15</t>
-  </si>
-  <si>
-    <t>test-id-16</t>
-  </si>
-  <si>
-    <t>test-id-17</t>
-  </si>
-  <si>
-    <t>test-id-18</t>
-  </si>
-  <si>
-    <t>test-id-19</t>
-  </si>
-  <si>
     <t>James</t>
   </si>
   <si>
@@ -536,6 +479,1485 @@
   </si>
   <si>
     <t>carrick.kirk@outlook.com</t>
+  </si>
+  <si>
+    <t>Jayne</t>
+  </si>
+  <si>
+    <t>Harvey</t>
+  </si>
+  <si>
+    <t>Avery</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>Kara</t>
+  </si>
+  <si>
+    <t>Jae</t>
+  </si>
+  <si>
+    <t>Bridget</t>
+  </si>
+  <si>
+    <t>Alphonse</t>
+  </si>
+  <si>
+    <t>Billie</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Sang</t>
+  </si>
+  <si>
+    <t>Julianne</t>
+  </si>
+  <si>
+    <t>Evelyn</t>
+  </si>
+  <si>
+    <t>Craig</t>
+  </si>
+  <si>
+    <t>Mari</t>
+  </si>
+  <si>
+    <t>Marguerite</t>
+  </si>
+  <si>
+    <t>Rosanna</t>
+  </si>
+  <si>
+    <t>Addie</t>
+  </si>
+  <si>
+    <t>Marcia</t>
+  </si>
+  <si>
+    <t>Rowena</t>
+  </si>
+  <si>
+    <t>Wilmer</t>
+  </si>
+  <si>
+    <t>Willard</t>
+  </si>
+  <si>
+    <t>Monica</t>
+  </si>
+  <si>
+    <t>Francesca</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
+    <t>Krista</t>
+  </si>
+  <si>
+    <t>Hester</t>
+  </si>
+  <si>
+    <t>Ruthie</t>
+  </si>
+  <si>
+    <t>Marlon</t>
+  </si>
+  <si>
+    <t>Kathrine</t>
+  </si>
+  <si>
+    <t>Ellen</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>Lori</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Quinton</t>
+  </si>
+  <si>
+    <t>Rory</t>
+  </si>
+  <si>
+    <t>Erica</t>
+  </si>
+  <si>
+    <t>Hilary</t>
+  </si>
+  <si>
+    <t>Alisha</t>
+  </si>
+  <si>
+    <t>Johnnie</t>
+  </si>
+  <si>
+    <t>Elijah</t>
+  </si>
+  <si>
+    <t>Penelope</t>
+  </si>
+  <si>
+    <t>Zachary</t>
+  </si>
+  <si>
+    <t>Hai</t>
+  </si>
+  <si>
+    <t>Lea</t>
+  </si>
+  <si>
+    <t>Glenna</t>
+  </si>
+  <si>
+    <t>Leland</t>
+  </si>
+  <si>
+    <t>Leah</t>
+  </si>
+  <si>
+    <t>Reed</t>
+  </si>
+  <si>
+    <t>Saunders</t>
+  </si>
+  <si>
+    <t>Buckley</t>
+  </si>
+  <si>
+    <t>Bush</t>
+  </si>
+  <si>
+    <t>Wiley</t>
+  </si>
+  <si>
+    <t>Ramos</t>
+  </si>
+  <si>
+    <t>Wilcox</t>
+  </si>
+  <si>
+    <t>Bender</t>
+  </si>
+  <si>
+    <t>Choi</t>
+  </si>
+  <si>
+    <t>Shields</t>
+  </si>
+  <si>
+    <t>Beasley</t>
+  </si>
+  <si>
+    <t>Sampson</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>Cochran</t>
+  </si>
+  <si>
+    <t>Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Rios</t>
+  </si>
+  <si>
+    <t>Blevins</t>
+  </si>
+  <si>
+    <t>Lane</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>Hudson</t>
+  </si>
+  <si>
+    <t>Hebert</t>
+  </si>
+  <si>
+    <t>Navarro</t>
+  </si>
+  <si>
+    <t>Huff</t>
+  </si>
+  <si>
+    <t>Flynn</t>
+  </si>
+  <si>
+    <t>Espinoza</t>
+  </si>
+  <si>
+    <t>Donovan</t>
+  </si>
+  <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>Holmes</t>
+  </si>
+  <si>
+    <t>Yates</t>
+  </si>
+  <si>
+    <t>Ortiz</t>
+  </si>
+  <si>
+    <t>Mcneil</t>
+  </si>
+  <si>
+    <t>Gaines</t>
+  </si>
+  <si>
+    <t>Myers</t>
+  </si>
+  <si>
+    <t>Bright</t>
+  </si>
+  <si>
+    <t>Acosta</t>
+  </si>
+  <si>
+    <t>Conrad</t>
+  </si>
+  <si>
+    <t>Ball</t>
+  </si>
+  <si>
+    <t>Meza</t>
+  </si>
+  <si>
+    <t>Cooley</t>
+  </si>
+  <si>
+    <t>Herman</t>
+  </si>
+  <si>
+    <t>Vazquez</t>
+  </si>
+  <si>
+    <t>Hinton</t>
+  </si>
+  <si>
+    <t>Estes</t>
+  </si>
+  <si>
+    <t>Kelley</t>
+  </si>
+  <si>
+    <t>Mccall</t>
+  </si>
+  <si>
+    <t>Mendez</t>
+  </si>
+  <si>
+    <t>Hood</t>
+  </si>
+  <si>
+    <t>Bowman</t>
+  </si>
+  <si>
+    <t>Mack</t>
+  </si>
+  <si>
+    <t>Allison</t>
+  </si>
+  <si>
+    <t>Twila</t>
+  </si>
+  <si>
+    <t>Isabella</t>
+  </si>
+  <si>
+    <t>Joan</t>
+  </si>
+  <si>
+    <t>Juanita</t>
+  </si>
+  <si>
+    <t>Blake</t>
+  </si>
+  <si>
+    <t>Colton</t>
+  </si>
+  <si>
+    <t>Phillip</t>
+  </si>
+  <si>
+    <t>Dorothy</t>
+  </si>
+  <si>
+    <t>Courtney</t>
+  </si>
+  <si>
+    <t>Casandra</t>
+  </si>
+  <si>
+    <t>Sylvester</t>
+  </si>
+  <si>
+    <t>Weston</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Carmella</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Darcy</t>
+  </si>
+  <si>
+    <t>Margo</t>
+  </si>
+  <si>
+    <t>Hilario</t>
+  </si>
+  <si>
+    <t>Frieda</t>
+  </si>
+  <si>
+    <t>Florine</t>
+  </si>
+  <si>
+    <t>Joesph</t>
+  </si>
+  <si>
+    <t>Levi</t>
+  </si>
+  <si>
+    <t>Cornelia</t>
+  </si>
+  <si>
+    <t>Mitchel</t>
+  </si>
+  <si>
+    <t>Freddy</t>
+  </si>
+  <si>
+    <t>Alonso</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>Gilda</t>
+  </si>
+  <si>
+    <t>Tyler</t>
+  </si>
+  <si>
+    <t>Wilkerson</t>
+  </si>
+  <si>
+    <t>Coleman</t>
+  </si>
+  <si>
+    <t>Cuevas</t>
+  </si>
+  <si>
+    <t>Padilla</t>
+  </si>
+  <si>
+    <t>Barr</t>
+  </si>
+  <si>
+    <t>Griffith</t>
+  </si>
+  <si>
+    <t>Novak</t>
+  </si>
+  <si>
+    <t>Robbins</t>
+  </si>
+  <si>
+    <t>Hendricks</t>
+  </si>
+  <si>
+    <t>Rangel</t>
+  </si>
+  <si>
+    <t>Tapia</t>
+  </si>
+  <si>
+    <t>Velazquez</t>
+  </si>
+  <si>
+    <t>Fowler</t>
+  </si>
+  <si>
+    <t>Bird</t>
+  </si>
+  <si>
+    <t>Ruiz</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Decker</t>
+  </si>
+  <si>
+    <t>Doyle</t>
+  </si>
+  <si>
+    <t>Andersen</t>
+  </si>
+  <si>
+    <t>Gonzales</t>
+  </si>
+  <si>
+    <t>Obrien</t>
+  </si>
+  <si>
+    <t>Ortega</t>
+  </si>
+  <si>
+    <t>Joyce</t>
+  </si>
+  <si>
+    <t>Moreno</t>
+  </si>
+  <si>
+    <t>Arroyo</t>
+  </si>
+  <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t>Woodward</t>
+  </si>
+  <si>
+    <t>Boyle</t>
+  </si>
+  <si>
+    <t>Nicholson</t>
+  </si>
+  <si>
+    <t>Tate</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>Kaufman</t>
+  </si>
+  <si>
+    <t>Gallegos</t>
+  </si>
+  <si>
+    <t>Andrews</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Cowan</t>
+  </si>
+  <si>
+    <t>Holder</t>
+  </si>
+  <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Hickman</t>
+  </si>
+  <si>
+    <t>Strickland</t>
+  </si>
+  <si>
+    <t>Sweeney</t>
+  </si>
+  <si>
+    <t>Mcgrath</t>
+  </si>
+  <si>
+    <t>Walls</t>
+  </si>
+  <si>
+    <t>Hatfield</t>
+  </si>
+  <si>
+    <t>Dunn</t>
+  </si>
+  <si>
+    <t>Bentley</t>
+  </si>
+  <si>
+    <t>Fuentes</t>
+  </si>
+  <si>
+    <t>Savage</t>
+  </si>
+  <si>
+    <t>Kent</t>
+  </si>
+  <si>
+    <t>Salinas</t>
+  </si>
+  <si>
+    <t>Daniels</t>
+  </si>
+  <si>
+    <t>Morse</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Sexton</t>
+  </si>
+  <si>
+    <t>Whitehead</t>
+  </si>
+  <si>
+    <t>Briggs</t>
+  </si>
+  <si>
+    <t>Leach</t>
+  </si>
+  <si>
+    <t>Cain</t>
+  </si>
+  <si>
+    <t>Snyder</t>
+  </si>
+  <si>
+    <t>Swanson</t>
+  </si>
+  <si>
+    <t>Baxter</t>
+  </si>
+  <si>
+    <t>Mccarty</t>
+  </si>
+  <si>
+    <t>Pineda</t>
+  </si>
+  <si>
+    <t>Blanchard</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Friedman</t>
+  </si>
+  <si>
+    <t>Pope</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Cummings</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>Clayton</t>
+  </si>
+  <si>
+    <t>Giles</t>
+  </si>
+  <si>
+    <t>Braun</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Benton</t>
+  </si>
+  <si>
+    <t>Lara</t>
+  </si>
+  <si>
+    <t>Dixon</t>
+  </si>
+  <si>
+    <t>Frye</t>
+  </si>
+  <si>
+    <t>Chandler</t>
+  </si>
+  <si>
+    <t>Dunlap</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Webb</t>
+  </si>
+  <si>
+    <t>Willis</t>
+  </si>
+  <si>
+    <t>Pruitt</t>
+  </si>
+  <si>
+    <t>Yang</t>
+  </si>
+  <si>
+    <t>Dillon</t>
+  </si>
+  <si>
+    <t>Calderon</t>
+  </si>
+  <si>
+    <t>Rhodes</t>
+  </si>
+  <si>
+    <t>Richards</t>
+  </si>
+  <si>
+    <t>Buck</t>
+  </si>
+  <si>
+    <t>Callie_Halvorson-Monahan@gmail.com</t>
+  </si>
+  <si>
+    <t>Lorena_Marvin70@gmail.com</t>
+  </si>
+  <si>
+    <t>Maxime.Dooley@gmail.com</t>
+  </si>
+  <si>
+    <t>Vernice.Maggio@gmail.com</t>
+  </si>
+  <si>
+    <t>Laverna_Shanahan@gmail.com</t>
+  </si>
+  <si>
+    <t>Richmond_Weber5@gmail.com</t>
+  </si>
+  <si>
+    <t>Mateo76@gmail.com</t>
+  </si>
+  <si>
+    <t>Julian_Stehr23@gmail.com</t>
+  </si>
+  <si>
+    <t>Jonas_Emard@gmail.com</t>
+  </si>
+  <si>
+    <t>Eva.Gusikowski63@gmail.com</t>
+  </si>
+  <si>
+    <t>Jaida.Corkery@gmail.com</t>
+  </si>
+  <si>
+    <t>Donnie_Lind20@gmail.com</t>
+  </si>
+  <si>
+    <t>Eldon86@gmail.com</t>
+  </si>
+  <si>
+    <t>Eugenia20@gmail.com</t>
+  </si>
+  <si>
+    <t>Seamus.Ward@gmail.com</t>
+  </si>
+  <si>
+    <t>Maurine84@gmail.com</t>
+  </si>
+  <si>
+    <t>Kathlyn.Sipes@gmail.com</t>
+  </si>
+  <si>
+    <t>Demario30@gmail.com</t>
+  </si>
+  <si>
+    <t>Jessica_Batz84@gmail.com</t>
+  </si>
+  <si>
+    <t>Justine_Huel@gmail.com</t>
+  </si>
+  <si>
+    <t>Kaylee.Hegmann@gmail.com</t>
+  </si>
+  <si>
+    <t>Herman_Bartoletti@gmail.com</t>
+  </si>
+  <si>
+    <t>Janet_Hudson@gmail.com</t>
+  </si>
+  <si>
+    <t>Hal_Batz@gmail.com</t>
+  </si>
+  <si>
+    <t>Dominique_Kilback27@gmail.com</t>
+  </si>
+  <si>
+    <t>Treva.Kris84@gmail.com</t>
+  </si>
+  <si>
+    <t>Angela_Kris28@gmail.com</t>
+  </si>
+  <si>
+    <t>Eldridge60@gmail.com</t>
+  </si>
+  <si>
+    <t>Kristofer_Terry@gmail.com</t>
+  </si>
+  <si>
+    <t>Salma.Sanford2@gmail.com</t>
+  </si>
+  <si>
+    <t>Deion.Pagac77@gmail.com</t>
+  </si>
+  <si>
+    <t>Cora_Veum33@gmail.com</t>
+  </si>
+  <si>
+    <t>Unique_Cruickshank@gmail.com</t>
+  </si>
+  <si>
+    <t>Adrian43@gmail.com</t>
+  </si>
+  <si>
+    <t>Lucienne.Toy@gmail.com</t>
+  </si>
+  <si>
+    <t>Coty_Torp@gmail.com</t>
+  </si>
+  <si>
+    <t>Izabella77@gmail.com</t>
+  </si>
+  <si>
+    <t>Eldred.Reilly@gmail.com</t>
+  </si>
+  <si>
+    <t>Bernardo3@gmail.com</t>
+  </si>
+  <si>
+    <t>Shanna_Hamill56@gmail.com</t>
+  </si>
+  <si>
+    <t>Julie40@gmail.com</t>
+  </si>
+  <si>
+    <t>Rocio_Kautzer0@gmail.com</t>
+  </si>
+  <si>
+    <t>Frida_Douglas-Murray98@gmail.com</t>
+  </si>
+  <si>
+    <t>Winfield.Graham15@gmail.com</t>
+  </si>
+  <si>
+    <t>Freida.Roberts@gmail.com</t>
+  </si>
+  <si>
+    <t>Pierce.Cruickshank7@gmail.com</t>
+  </si>
+  <si>
+    <t>Mustafa.Abshire22@gmail.com</t>
+  </si>
+  <si>
+    <t>Vernice_Parker@gmail.com</t>
+  </si>
+  <si>
+    <t>Arlo86@gmail.com</t>
+  </si>
+  <si>
+    <t>Ruthie_Kohler@gmail.com</t>
+  </si>
+  <si>
+    <t>Alexander_McCullough24@gmail.com</t>
+  </si>
+  <si>
+    <t>Jonatan.Sporer1@gmail.com</t>
+  </si>
+  <si>
+    <t>Kiel_Parker4@gmail.com</t>
+  </si>
+  <si>
+    <t>Jeanette_Von47@gmail.com</t>
+  </si>
+  <si>
+    <t>Michelle_Will88@gmail.com</t>
+  </si>
+  <si>
+    <t>Kaden.Hane@gmail.com</t>
+  </si>
+  <si>
+    <t>Maida.Schuppe@gmail.com</t>
+  </si>
+  <si>
+    <t>Emely_Schroeder@gmail.com</t>
+  </si>
+  <si>
+    <t>Treva25@gmail.com</t>
+  </si>
+  <si>
+    <t>Haleigh_Roberts53@gmail.com</t>
+  </si>
+  <si>
+    <t>Claude23@gmail.com</t>
+  </si>
+  <si>
+    <t>Carolyne29@gmail.com</t>
+  </si>
+  <si>
+    <t>Richie.Hilll@gmail.com</t>
+  </si>
+  <si>
+    <t>Tate_Leannon55@gmail.com</t>
+  </si>
+  <si>
+    <t>Nikko47@gmail.com</t>
+  </si>
+  <si>
+    <t>Parker39@gmail.com</t>
+  </si>
+  <si>
+    <t>Syble82@gmail.com</t>
+  </si>
+  <si>
+    <t>Bradly.Lockman@gmail.com</t>
+  </si>
+  <si>
+    <t>Leonard_Ledner@gmail.com</t>
+  </si>
+  <si>
+    <t>Enrique.Carter91@gmail.com</t>
+  </si>
+  <si>
+    <t>Christop82@gmail.com</t>
+  </si>
+  <si>
+    <t>Vivian.Trantow@gmail.com</t>
+  </si>
+  <si>
+    <t>Bethel.Ortiz67@gmail.com</t>
+  </si>
+  <si>
+    <t>Nya.Herzog86@gmail.com</t>
+  </si>
+  <si>
+    <t>Keagan83@gmail.com</t>
+  </si>
+  <si>
+    <t>Garnett.Anderson@gmail.com</t>
+  </si>
+  <si>
+    <t>Abigail.Mueller9@gmail.com</t>
+  </si>
+  <si>
+    <t>Evans_Sanford17@gmail.com</t>
+  </si>
+  <si>
+    <t>Julius.Heathcote@gmail.com</t>
+  </si>
+  <si>
+    <t>Kaycee.Maggio@gmail.com</t>
+  </si>
+  <si>
+    <t>3503 Sweetwood Drive Denver Colorado</t>
+  </si>
+  <si>
+    <t>2620 Arthur Avenue Freeport Illinois</t>
+  </si>
+  <si>
+    <t>526 Thunder Road Daly City California</t>
+  </si>
+  <si>
+    <t>4344 Luke Lane Smithville Oklahoma</t>
+  </si>
+  <si>
+    <t>2564 Levy Court Framingham Massachusetts</t>
+  </si>
+  <si>
+    <t>570 Willis Avenue Welaka Florida</t>
+  </si>
+  <si>
+    <t>1086 Taylor Street Northridge California</t>
+  </si>
+  <si>
+    <t>2669 Stiles Street Quentin Pennsylvania</t>
+  </si>
+  <si>
+    <t>2136 Woodridge Lane Memphis Tennessee</t>
+  </si>
+  <si>
+    <t>1368 Five Points Falkville Alabama</t>
+  </si>
+  <si>
+    <t>3446 Cerullo Road Louisville Kentucky</t>
+  </si>
+  <si>
+    <t>34 Sunburst Drive Fort Myers Florida</t>
+  </si>
+  <si>
+    <t>2067 Buffalo Creek Road Nashville Tennessee</t>
+  </si>
+  <si>
+    <t>4869 Lincoln Street White Horse New Jersey</t>
+  </si>
+  <si>
+    <t>3182 Ridge Road Sharon Kansas</t>
+  </si>
+  <si>
+    <t>295 Heather Sees Way Mcalester Oklahoma</t>
+  </si>
+  <si>
+    <t>337 Big Elm Lenexa Missouri</t>
+  </si>
+  <si>
+    <t>3802 Trouser Leg Road Springfield Massachusetts</t>
+  </si>
+  <si>
+    <t>4137 Reppert Coal Road Livonia Michigan</t>
+  </si>
+  <si>
+    <t>908 Water Street Walnut Creek California</t>
+  </si>
+  <si>
+    <t>929 Johnson Street Raleigh North Carolina</t>
+  </si>
+  <si>
+    <t>1159 Passaic Street Washington Washington DC</t>
+  </si>
+  <si>
+    <t>2184 Harron Drive Baltimore Maryland</t>
+  </si>
+  <si>
+    <t>1855 Whitetail Lane Dallas Texas</t>
+  </si>
+  <si>
+    <t>4610 Winding Way San Marcos Texas</t>
+  </si>
+  <si>
+    <t>95 Watson Lane San Antonio Texas</t>
+  </si>
+  <si>
+    <t>3614 My Drive Garden City New York</t>
+  </si>
+  <si>
+    <t>517 Lewis Street Hickory Hills Illinois</t>
+  </si>
+  <si>
+    <t>4040 Sussex Court Killeen Texas</t>
+  </si>
+  <si>
+    <t>639 Isaacs Creek Road Mattoon Illinois</t>
+  </si>
+  <si>
+    <t>3646 Woodside Circle Panama City Florida</t>
+  </si>
+  <si>
+    <t>1403 Queens Lane Charlottesville Virginia</t>
+  </si>
+  <si>
+    <t>478 Andy Street Sioux Falls South Dakota</t>
+  </si>
+  <si>
+    <t>392 James Martin Circle Columbus Ohio</t>
+  </si>
+  <si>
+    <t>4595 Arbutus Drive Miami Springs Florida</t>
+  </si>
+  <si>
+    <t>4200 Burwell Heights Road Beaumont Texas</t>
+  </si>
+  <si>
+    <t>1715 Alpha Avenue Chavies Kentucky</t>
+  </si>
+  <si>
+    <t>4949 Ashton Lane Austin Texas</t>
+  </si>
+  <si>
+    <t>3027 Archwood Avenue Jacksonville Florida</t>
+  </si>
+  <si>
+    <t>2740 Harper Street Washington District of Columbia</t>
+  </si>
+  <si>
+    <t>2092 Chandler Hollow Road Sewickley Pennsylvania</t>
+  </si>
+  <si>
+    <t>3867 Sugar Camp Road Brownsville Minnesota</t>
+  </si>
+  <si>
+    <t>3531 Beech Street Antioch California</t>
+  </si>
+  <si>
+    <t>2603 Mandan Road Jefferson City Missouri</t>
+  </si>
+  <si>
+    <t>964 Junkins Avenue Nebo Kentucky</t>
+  </si>
+  <si>
+    <t>498 Central Avenue Teterboro New Jersey</t>
+  </si>
+  <si>
+    <t>3886 Bryan Avenue White Bear Lake Minnesota</t>
+  </si>
+  <si>
+    <t>2769 Lords Way Jackson Tennessee</t>
+  </si>
+  <si>
+    <t>458 Ashford Drive Centerville Virginia</t>
+  </si>
+  <si>
+    <t>4909 Progress Way Redlake Minnesota</t>
+  </si>
+  <si>
+    <t>1103 Byers Lane Chico California</t>
+  </si>
+  <si>
+    <t>1952 Badger Pond Lane Imperial Beach California</t>
+  </si>
+  <si>
+    <t>4852 Golf Course Drive Herndon Virginia</t>
+  </si>
+  <si>
+    <t>1368 Boring Lane Brisbane California</t>
+  </si>
+  <si>
+    <t>2738 Bel Meadow Drive Fontana California</t>
+  </si>
+  <si>
+    <t>1655 Haymond Rocks Road Baker City Oregon</t>
+  </si>
+  <si>
+    <t>4681 Burke Street Revere Massachusetts</t>
+  </si>
+  <si>
+    <t>4191 Deer Haven Drive Greenville South Carolina</t>
+  </si>
+  <si>
+    <t>2315 Lakeland Park Drive Kempton Illinois</t>
+  </si>
+  <si>
+    <t>2977 Elk City Road Hot Springs National Park Arkansas</t>
+  </si>
+  <si>
+    <t>2881 Rosemont Avenue Orlando Florida</t>
+  </si>
+  <si>
+    <t>1443 Ross Street Belleville Illinois</t>
+  </si>
+  <si>
+    <t>4225 Perine Street Leesburg Virginia</t>
+  </si>
+  <si>
+    <t>1602 Charla Lane Richardson Texas</t>
+  </si>
+  <si>
+    <t>4443 Smith Street Marlboro Massachusetts</t>
+  </si>
+  <si>
+    <t>3213 West Side Avenue Franklintown Pennsylvania</t>
+  </si>
+  <si>
+    <t>2005 Alpaca Way Lenoir North Carolina</t>
+  </si>
+  <si>
+    <t>3685 Doe Meadow Drive Rockville Maryland</t>
+  </si>
+  <si>
+    <t>4314 Java Lane Savannah Georgia</t>
+  </si>
+  <si>
+    <t>3019 Neuport Lane Woodstock New Hampshire</t>
+  </si>
+  <si>
+    <t>4427 White Lane Macon Georgia</t>
+  </si>
+  <si>
+    <t>2992 Pine Tree Lane Washington Maryland</t>
+  </si>
+  <si>
+    <t>2195 Big Elm Overland Park Missouri</t>
+  </si>
+  <si>
+    <t>1332 Drainer Avenue Milton Florida</t>
+  </si>
+  <si>
+    <t>1155 Aspen Court Loami Illinois</t>
+  </si>
+  <si>
+    <t>4325 Kildeer Drive Norfolk Virginia</t>
+  </si>
+  <si>
+    <t>2978 Lightning Point Drive Memphis Tennessee</t>
+  </si>
+  <si>
+    <t>4195 Primrose Lane Genoa Wisconsin</t>
+  </si>
+  <si>
+    <t>206 Mayo Street Cincinnati Kentucky</t>
+  </si>
+  <si>
+    <t>538 Froe Street Rivesville West Virginia</t>
+  </si>
+  <si>
+    <t>EMP-ID-01</t>
+  </si>
+  <si>
+    <t>EMP-ID-02</t>
+  </si>
+  <si>
+    <t>EMP-ID-03</t>
+  </si>
+  <si>
+    <t>EMP-ID-04</t>
+  </si>
+  <si>
+    <t>EMP-ID-05</t>
+  </si>
+  <si>
+    <t>EMP-ID-06</t>
+  </si>
+  <si>
+    <t>EMP-ID-07</t>
+  </si>
+  <si>
+    <t>EMP-ID-08</t>
+  </si>
+  <si>
+    <t>EMP-ID-09</t>
+  </si>
+  <si>
+    <t>EMP-ID-10</t>
+  </si>
+  <si>
+    <t>EMP-ID-11</t>
+  </si>
+  <si>
+    <t>EMP-ID-12</t>
+  </si>
+  <si>
+    <t>EMP-ID-13</t>
+  </si>
+  <si>
+    <t>EMP-ID-14</t>
+  </si>
+  <si>
+    <t>EMP-ID-15</t>
+  </si>
+  <si>
+    <t>EMP-ID-16</t>
+  </si>
+  <si>
+    <t>EMP-ID-17</t>
+  </si>
+  <si>
+    <t>EMP-ID-18</t>
+  </si>
+  <si>
+    <t>EMP-ID-19</t>
+  </si>
+  <si>
+    <t>EMP-ID-20</t>
+  </si>
+  <si>
+    <t>EMP-ID-21</t>
+  </si>
+  <si>
+    <t>EMP-ID-22</t>
+  </si>
+  <si>
+    <t>EMP-ID-23</t>
+  </si>
+  <si>
+    <t>EMP-ID-24</t>
+  </si>
+  <si>
+    <t>EMP-ID-25</t>
+  </si>
+  <si>
+    <t>EMP-ID-26</t>
+  </si>
+  <si>
+    <t>EMP-ID-27</t>
+  </si>
+  <si>
+    <t>EMP-ID-28</t>
+  </si>
+  <si>
+    <t>EMP-ID-29</t>
+  </si>
+  <si>
+    <t>EMP-ID-30</t>
+  </si>
+  <si>
+    <t>EMP-ID-31</t>
+  </si>
+  <si>
+    <t>EMP-ID-32</t>
+  </si>
+  <si>
+    <t>EMP-ID-33</t>
+  </si>
+  <si>
+    <t>EMP-ID-34</t>
+  </si>
+  <si>
+    <t>EMP-ID-35</t>
+  </si>
+  <si>
+    <t>EMP-ID-36</t>
+  </si>
+  <si>
+    <t>EMP-ID-37</t>
+  </si>
+  <si>
+    <t>EMP-ID-38</t>
+  </si>
+  <si>
+    <t>EMP-ID-39</t>
+  </si>
+  <si>
+    <t>EMP-ID-40</t>
+  </si>
+  <si>
+    <t>EMP-ID-41</t>
+  </si>
+  <si>
+    <t>EMP-ID-42</t>
+  </si>
+  <si>
+    <t>EMP-ID-43</t>
+  </si>
+  <si>
+    <t>EMP-ID-44</t>
+  </si>
+  <si>
+    <t>EMP-ID-45</t>
+  </si>
+  <si>
+    <t>EMP-ID-46</t>
+  </si>
+  <si>
+    <t>EMP-ID-47</t>
+  </si>
+  <si>
+    <t>EMP-ID-48</t>
+  </si>
+  <si>
+    <t>EMP-ID-49</t>
+  </si>
+  <si>
+    <t>EMP-ID-50</t>
+  </si>
+  <si>
+    <t>EMP-ID-51</t>
+  </si>
+  <si>
+    <t>EMP-ID-52</t>
+  </si>
+  <si>
+    <t>EMP-ID-53</t>
+  </si>
+  <si>
+    <t>EMP-ID-54</t>
+  </si>
+  <si>
+    <t>EMP-ID-55</t>
+  </si>
+  <si>
+    <t>EMP-ID-56</t>
+  </si>
+  <si>
+    <t>EMP-ID-57</t>
+  </si>
+  <si>
+    <t>EMP-ID-58</t>
+  </si>
+  <si>
+    <t>EMP-ID-59</t>
+  </si>
+  <si>
+    <t>EMP-ID-60</t>
+  </si>
+  <si>
+    <t>EMP-ID-61</t>
+  </si>
+  <si>
+    <t>EMP-ID-62</t>
+  </si>
+  <si>
+    <t>EMP-ID-63</t>
+  </si>
+  <si>
+    <t>EMP-ID-64</t>
+  </si>
+  <si>
+    <t>EMP-ID-65</t>
+  </si>
+  <si>
+    <t>EMP-ID-66</t>
+  </si>
+  <si>
+    <t>EMP-ID-67</t>
+  </si>
+  <si>
+    <t>EMP-ID-68</t>
+  </si>
+  <si>
+    <t>EMP-ID-69</t>
+  </si>
+  <si>
+    <t>EMP-ID-70</t>
+  </si>
+  <si>
+    <t>EMP-ID-71</t>
+  </si>
+  <si>
+    <t>EMP-ID-72</t>
+  </si>
+  <si>
+    <t>EMP-ID-73</t>
+  </si>
+  <si>
+    <t>EMP-ID-74</t>
+  </si>
+  <si>
+    <t>EMP-ID-75</t>
+  </si>
+  <si>
+    <t>EMP-ID-76</t>
+  </si>
+  <si>
+    <t>EMP-ID-77</t>
+  </si>
+  <si>
+    <t>EMP-ID-78</t>
+  </si>
+  <si>
+    <t>EMP-ID-79</t>
+  </si>
+  <si>
+    <t>EMP-ID-80</t>
+  </si>
+  <si>
+    <t>EMP-ID-81</t>
+  </si>
+  <si>
+    <t>EMP-ID-82</t>
+  </si>
+  <si>
+    <t>EMP-ID-83</t>
+  </si>
+  <si>
+    <t>EMP-ID-84</t>
+  </si>
+  <si>
+    <t>EMP-ID-85</t>
+  </si>
+  <si>
+    <t>EMP-ID-86</t>
+  </si>
+  <si>
+    <t>EMP-ID-87</t>
+  </si>
+  <si>
+    <t>EMP-ID-88</t>
+  </si>
+  <si>
+    <t>EMP-ID-89</t>
+  </si>
+  <si>
+    <t>EMP-ID-90</t>
+  </si>
+  <si>
+    <t>EMP-ID-91</t>
+  </si>
+  <si>
+    <t>EMP-ID-92</t>
+  </si>
+  <si>
+    <t>EMP-ID-93</t>
+  </si>
+  <si>
+    <t>EMP-ID-94</t>
+  </si>
+  <si>
+    <t>EMP-ID-95</t>
+  </si>
+  <si>
+    <t>EMP-ID-96</t>
+  </si>
+  <si>
+    <t>EMP-ID-97</t>
+  </si>
+  <si>
+    <t>EMP-ID-98</t>
+  </si>
+  <si>
+    <t>EMP-ID-99</t>
+  </si>
+  <si>
+    <t>PURCHASER</t>
+  </si>
+  <si>
+    <t>SALES</t>
+  </si>
+  <si>
+    <t>INTERNAL MEDICINE, NEUROLOGY</t>
+  </si>
+  <si>
+    <t>INTERNAL MEDICINE, RHEUMATOLOGY</t>
+  </si>
+  <si>
+    <t>INTERNAL MEDICINE, UROLOGY, ENDOCRINOLOGY</t>
+  </si>
+  <si>
+    <t>INTERNAL MEDICINE, ENDOCRINOLOGY</t>
+  </si>
+  <si>
+    <t>INTERNAL MEDICINE, GENERAL SURGERY</t>
+  </si>
+  <si>
+    <t>INTERNAL MEDICINE, CARDIOLOGY</t>
+  </si>
+  <si>
+    <t>INTERNAL MEDICINE, INTENSIVE CARE MEDICINE</t>
+  </si>
+  <si>
+    <t>HEMATOLOGY</t>
+  </si>
+  <si>
+    <t>DERMATOLOGY</t>
+  </si>
+  <si>
+    <t>ENDOCRINOLOGY</t>
+  </si>
+  <si>
+    <t>SPEC 01, SPEC 03</t>
+  </si>
+  <si>
+    <t>INTERNAL MEDICINE, HEMATOLOGY</t>
   </si>
 </sst>
 </file>
@@ -1022,10 +2444,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1381,10 +2802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="N80" sqref="N80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1424,7 +2845,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G1" t="s">
         <v>10</v>
@@ -1459,25 +2880,25 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
         <v>89</v>
-      </c>
-      <c r="H2" t="s">
-        <v>108</v>
       </c>
       <c r="I2" s="1">
         <v>35847</v>
@@ -1489,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="O2" s="1">
         <v>44437</v>
@@ -1497,28 +2918,28 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
         <v>90</v>
-      </c>
-      <c r="H3" t="s">
-        <v>109</v>
       </c>
       <c r="I3" s="1">
         <v>31960</v>
@@ -1530,10 +2951,10 @@
         <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="N3" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="O3" s="1">
         <v>45543</v>
@@ -1544,28 +2965,28 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
         <v>91</v>
-      </c>
-      <c r="H4" t="s">
-        <v>110</v>
       </c>
       <c r="I4" s="1">
         <v>36835</v>
@@ -1577,34 +2998,34 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>536</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
         <v>92</v>
-      </c>
-      <c r="H5" t="s">
-        <v>111</v>
       </c>
       <c r="I5" s="1">
         <v>31308</v>
@@ -1616,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="O5" s="1">
         <v>45223</v>
@@ -1624,28 +3045,28 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
         <v>93</v>
-      </c>
-      <c r="H6" t="s">
-        <v>112</v>
       </c>
       <c r="I6" s="1">
         <v>31547</v>
@@ -1657,13 +3078,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="N6" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="O6" s="1">
         <v>44453</v>
@@ -1671,25 +3092,25 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
         <v>94</v>
-      </c>
-      <c r="H7" t="s">
-        <v>113</v>
       </c>
       <c r="I7" s="1">
         <v>35568</v>
@@ -1701,10 +3122,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="N7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="O7" s="1">
         <v>45136</v>
@@ -1712,28 +3133,28 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>539</v>
+      </c>
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
         <v>95</v>
-      </c>
-      <c r="H8" t="s">
-        <v>114</v>
       </c>
       <c r="I8" s="1">
         <v>36381</v>
@@ -1745,10 +3166,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="N8" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="O8" s="1">
         <v>44047</v>
@@ -1756,28 +3177,28 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>540</v>
+      </c>
+      <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" t="s">
-        <v>65</v>
-      </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
         <v>96</v>
-      </c>
-      <c r="H9" t="s">
-        <v>115</v>
       </c>
       <c r="I9" s="1">
         <v>34953</v>
@@ -1789,13 +3210,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="M9" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="N9" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="O9" s="1">
         <v>45418</v>
@@ -1803,28 +3224,28 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>541</v>
+      </c>
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
         <v>97</v>
-      </c>
-      <c r="H10" t="s">
-        <v>116</v>
       </c>
       <c r="I10" s="1">
         <v>32214</v>
@@ -1836,10 +3257,10 @@
         <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="N10" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="O10" s="1">
         <v>45149</v>
@@ -1850,28 +3271,28 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>542</v>
+      </c>
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>48</v>
       </c>
-      <c r="C11" t="s">
-        <v>67</v>
-      </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
         <v>98</v>
-      </c>
-      <c r="H11" t="s">
-        <v>117</v>
       </c>
       <c r="I11" s="1">
         <v>35952</v>
@@ -1883,13 +3304,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="N11" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="O11" s="1">
         <v>44726</v>
@@ -1897,28 +3318,28 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>543</v>
+      </c>
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s">
         <v>68</v>
       </c>
-      <c r="D12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" t="s">
-        <v>87</v>
-      </c>
       <c r="F12" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
         <v>99</v>
-      </c>
-      <c r="H12" t="s">
-        <v>118</v>
       </c>
       <c r="I12" s="1">
         <v>36540</v>
@@ -1930,40 +3351,40 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="M12" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="N12" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>544</v>
+      </c>
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
         <v>69</v>
       </c>
-      <c r="D13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" t="s">
-        <v>88</v>
-      </c>
       <c r="F13" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s">
         <v>100</v>
-      </c>
-      <c r="H13" t="s">
-        <v>119</v>
       </c>
       <c r="I13" s="1">
         <v>36705</v>
@@ -1975,13 +3396,13 @@
         <v>2</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="M13" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="N13" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="O13" s="1">
         <v>44269</v>
@@ -1992,28 +3413,28 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>545</v>
+      </c>
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
-        <v>70</v>
-      </c>
       <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" t="s">
         <v>82</v>
       </c>
-      <c r="E14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" t="s">
-        <v>165</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>101</v>
-      </c>
-      <c r="H14" t="s">
-        <v>120</v>
       </c>
       <c r="I14" s="1">
         <v>32101</v>
@@ -2025,10 +3446,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="O14" s="1">
         <v>44891</v>
@@ -2036,28 +3457,28 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>546</v>
+      </c>
+      <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
-        <v>71</v>
-      </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
         <v>102</v>
-      </c>
-      <c r="H15" t="s">
-        <v>121</v>
       </c>
       <c r="I15" s="1">
         <v>34787</v>
@@ -2069,10 +3490,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>135</v>
+        <v>116</v>
+      </c>
+      <c r="M15" t="s">
+        <v>119</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="O15" s="1">
         <v>45296</v>
@@ -2080,28 +3504,28 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>547</v>
+      </c>
+      <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>53</v>
       </c>
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
         <v>103</v>
-      </c>
-      <c r="H16" t="s">
-        <v>122</v>
       </c>
       <c r="I16" s="1">
         <v>35531</v>
@@ -2113,13 +3537,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="M16" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="N16" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="O16" s="1">
         <v>43997</v>
@@ -2127,28 +3551,28 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>548</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>54</v>
       </c>
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="G17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
         <v>104</v>
-      </c>
-      <c r="H17" t="s">
-        <v>123</v>
       </c>
       <c r="I17" s="1">
         <v>34004</v>
@@ -2160,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="M17" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="N17" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="O17" s="1">
         <v>44065</v>
@@ -2174,28 +3598,28 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>549</v>
+      </c>
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>55</v>
       </c>
-      <c r="C18" t="s">
-        <v>74</v>
-      </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="G18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" t="s">
         <v>105</v>
-      </c>
-      <c r="H18" t="s">
-        <v>124</v>
       </c>
       <c r="I18" s="1">
         <v>35971</v>
@@ -2207,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="O18" s="1">
         <v>44717</v>
@@ -2215,28 +3639,28 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>550</v>
+      </c>
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>56</v>
       </c>
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" t="s">
         <v>87</v>
       </c>
-      <c r="F19" t="s">
-        <v>170</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>106</v>
-      </c>
-      <c r="H19" t="s">
-        <v>125</v>
       </c>
       <c r="I19" s="1">
         <v>34893</v>
@@ -2248,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="O19" s="1">
         <v>44090</v>
@@ -2256,28 +3680,28 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>551</v>
+      </c>
+      <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>57</v>
       </c>
-      <c r="C20" t="s">
-        <v>76</v>
-      </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="G20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" t="s">
         <v>107</v>
-      </c>
-      <c r="H20" t="s">
-        <v>126</v>
       </c>
       <c r="I20" s="1">
         <v>35202</v>
@@ -2289,14 +3713,3546 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="O20" s="1">
         <v>44969</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J21" s="2"/>
+      <c r="A21" t="s">
+        <v>552</v>
+      </c>
+      <c r="B21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>373</v>
+      </c>
+      <c r="G21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" t="s">
+        <v>453</v>
+      </c>
+      <c r="I21" s="1">
+        <v>35848</v>
+      </c>
+      <c r="J21" s="1">
+        <v>44258</v>
+      </c>
+      <c r="K21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>116</v>
+      </c>
+      <c r="M21" t="s">
+        <v>118</v>
+      </c>
+      <c r="N21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O21" s="1">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>553</v>
+      </c>
+      <c r="B22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" t="s">
+        <v>246</v>
+      </c>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" t="s">
+        <v>374</v>
+      </c>
+      <c r="G22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" t="s">
+        <v>454</v>
+      </c>
+      <c r="I22" s="1">
+        <v>31961</v>
+      </c>
+      <c r="J22" s="1">
+        <v>45363</v>
+      </c>
+      <c r="K22" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>116</v>
+      </c>
+      <c r="M22" t="s">
+        <v>117</v>
+      </c>
+      <c r="N22" t="s">
+        <v>127</v>
+      </c>
+      <c r="O22" s="1">
+        <v>45543</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>554</v>
+      </c>
+      <c r="B23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" t="s">
+        <v>309</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
+        <v>375</v>
+      </c>
+      <c r="G23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" t="s">
+        <v>455</v>
+      </c>
+      <c r="I23" s="1">
+        <v>36836</v>
+      </c>
+      <c r="J23" s="1">
+        <v>45568</v>
+      </c>
+      <c r="K23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>116</v>
+      </c>
+      <c r="M23" t="s">
+        <v>118</v>
+      </c>
+      <c r="N23" t="s">
+        <v>127</v>
+      </c>
+      <c r="O23" s="1">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>555</v>
+      </c>
+      <c r="B24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" t="s">
+        <v>310</v>
+      </c>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" t="s">
+        <v>376</v>
+      </c>
+      <c r="G24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" t="s">
+        <v>456</v>
+      </c>
+      <c r="I24" s="1">
+        <v>31309</v>
+      </c>
+      <c r="J24" s="1">
+        <v>45134</v>
+      </c>
+      <c r="K24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>116</v>
+      </c>
+      <c r="M24" t="s">
+        <v>119</v>
+      </c>
+      <c r="N24" t="s">
+        <v>127</v>
+      </c>
+      <c r="O24" s="1">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>556</v>
+      </c>
+      <c r="B25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" t="s">
+        <v>311</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" t="s">
+        <v>377</v>
+      </c>
+      <c r="G25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" t="s">
+        <v>457</v>
+      </c>
+      <c r="I25" s="1">
+        <v>31548</v>
+      </c>
+      <c r="J25" s="1">
+        <v>44273</v>
+      </c>
+      <c r="K25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>116</v>
+      </c>
+      <c r="M25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N25" t="s">
+        <v>127</v>
+      </c>
+      <c r="O25" s="1">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>557</v>
+      </c>
+      <c r="B26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" t="s">
+        <v>312</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" t="s">
+        <v>378</v>
+      </c>
+      <c r="G26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" t="s">
+        <v>458</v>
+      </c>
+      <c r="I26" s="1">
+        <v>35569</v>
+      </c>
+      <c r="J26" s="1">
+        <v>44953</v>
+      </c>
+      <c r="K26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>632</v>
+      </c>
+      <c r="O26" s="1">
+        <v>45133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>558</v>
+      </c>
+      <c r="B27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" t="s">
+        <v>208</v>
+      </c>
+      <c r="D27" t="s">
+        <v>242</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" t="s">
+        <v>379</v>
+      </c>
+      <c r="G27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" t="s">
+        <v>459</v>
+      </c>
+      <c r="I27" s="1">
+        <v>36382</v>
+      </c>
+      <c r="J27" s="1">
+        <v>43896</v>
+      </c>
+      <c r="K27" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>632</v>
+      </c>
+      <c r="O27" s="1">
+        <v>44076</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>559</v>
+      </c>
+      <c r="B28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" t="s">
+        <v>313</v>
+      </c>
+      <c r="E28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" t="s">
+        <v>380</v>
+      </c>
+      <c r="G28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" t="s">
+        <v>460</v>
+      </c>
+      <c r="I28" s="1">
+        <v>34954</v>
+      </c>
+      <c r="J28" s="1">
+        <v>45238</v>
+      </c>
+      <c r="K28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>632</v>
+      </c>
+      <c r="O28" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>560</v>
+      </c>
+      <c r="B29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" t="s">
+        <v>210</v>
+      </c>
+      <c r="D29" t="s">
+        <v>314</v>
+      </c>
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" t="s">
+        <v>381</v>
+      </c>
+      <c r="G29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s">
+        <v>461</v>
+      </c>
+      <c r="I29" s="1">
+        <v>32215</v>
+      </c>
+      <c r="J29" s="1">
+        <v>44997</v>
+      </c>
+      <c r="K29" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>633</v>
+      </c>
+      <c r="O29" s="1">
+        <v>45177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>561</v>
+      </c>
+      <c r="B30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" t="s">
+        <v>315</v>
+      </c>
+      <c r="E30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" t="s">
+        <v>382</v>
+      </c>
+      <c r="G30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" t="s">
+        <v>462</v>
+      </c>
+      <c r="I30" s="1">
+        <v>35953</v>
+      </c>
+      <c r="J30" s="1">
+        <v>44546</v>
+      </c>
+      <c r="K30" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>633</v>
+      </c>
+      <c r="O30" s="1">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>562</v>
+      </c>
+      <c r="B31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" t="s">
+        <v>316</v>
+      </c>
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" t="s">
+        <v>463</v>
+      </c>
+      <c r="I31" s="1">
+        <v>36541</v>
+      </c>
+      <c r="J31" s="1">
+        <v>45535</v>
+      </c>
+      <c r="K31" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>633</v>
+      </c>
+      <c r="O31" s="1">
+        <v>45715</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>563</v>
+      </c>
+      <c r="B32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" t="s">
+        <v>213</v>
+      </c>
+      <c r="D32" t="s">
+        <v>317</v>
+      </c>
+      <c r="E32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" t="s">
+        <v>384</v>
+      </c>
+      <c r="G32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" t="s">
+        <v>464</v>
+      </c>
+      <c r="I32" s="1">
+        <v>36706</v>
+      </c>
+      <c r="J32" s="1">
+        <v>44089</v>
+      </c>
+      <c r="K32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>633</v>
+      </c>
+      <c r="O32" s="1">
+        <v>44269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>564</v>
+      </c>
+      <c r="B33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" t="s">
+        <v>238</v>
+      </c>
+      <c r="E33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" t="s">
+        <v>385</v>
+      </c>
+      <c r="G33" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" t="s">
+        <v>465</v>
+      </c>
+      <c r="I33" s="1">
+        <v>32102</v>
+      </c>
+      <c r="J33" s="1">
+        <v>44708</v>
+      </c>
+      <c r="K33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>633</v>
+      </c>
+      <c r="O33" s="1">
+        <v>44888</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>565</v>
+      </c>
+      <c r="B34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" t="s">
+        <v>386</v>
+      </c>
+      <c r="G34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" t="s">
+        <v>466</v>
+      </c>
+      <c r="I34" s="1">
+        <v>34788</v>
+      </c>
+      <c r="J34" s="1">
+        <v>45116</v>
+      </c>
+      <c r="K34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>115</v>
+      </c>
+      <c r="M34" t="s">
+        <v>119</v>
+      </c>
+      <c r="N34" t="s">
+        <v>643</v>
+      </c>
+      <c r="O34" s="1">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>566</v>
+      </c>
+      <c r="B35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" t="s">
+        <v>318</v>
+      </c>
+      <c r="E35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" t="s">
+        <v>387</v>
+      </c>
+      <c r="G35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" t="s">
+        <v>467</v>
+      </c>
+      <c r="I35" s="1">
+        <v>35532</v>
+      </c>
+      <c r="J35" s="1">
+        <v>43817</v>
+      </c>
+      <c r="K35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>115</v>
+      </c>
+      <c r="M35" t="s">
+        <v>119</v>
+      </c>
+      <c r="N35" t="s">
+        <v>643</v>
+      </c>
+      <c r="O35" s="1">
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>567</v>
+      </c>
+      <c r="B36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" t="s">
+        <v>319</v>
+      </c>
+      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" t="s">
+        <v>388</v>
+      </c>
+      <c r="G36" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" t="s">
+        <v>468</v>
+      </c>
+      <c r="I36" s="1">
+        <v>34005</v>
+      </c>
+      <c r="J36" s="1">
+        <v>43914</v>
+      </c>
+      <c r="K36" t="s">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>109</v>
+      </c>
+      <c r="N36" t="s">
+        <v>125</v>
+      </c>
+      <c r="O36" s="1">
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>568</v>
+      </c>
+      <c r="B37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" t="s">
+        <v>320</v>
+      </c>
+      <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
+        <v>389</v>
+      </c>
+      <c r="G37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" t="s">
+        <v>469</v>
+      </c>
+      <c r="I37" s="1">
+        <v>35972</v>
+      </c>
+      <c r="J37" s="1">
+        <v>44537</v>
+      </c>
+      <c r="K37" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>109</v>
+      </c>
+      <c r="N37" t="s">
+        <v>125</v>
+      </c>
+      <c r="O37" s="1">
+        <v>44717</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>569</v>
+      </c>
+      <c r="B38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" t="s">
+        <v>219</v>
+      </c>
+      <c r="D38" t="s">
+        <v>321</v>
+      </c>
+      <c r="E38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" t="s">
+        <v>390</v>
+      </c>
+      <c r="G38" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" t="s">
+        <v>470</v>
+      </c>
+      <c r="I38" s="1">
+        <v>34894</v>
+      </c>
+      <c r="J38" s="1">
+        <v>43910</v>
+      </c>
+      <c r="K38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>109</v>
+      </c>
+      <c r="N38" t="s">
+        <v>125</v>
+      </c>
+      <c r="O38" s="1">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>570</v>
+      </c>
+      <c r="B39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" t="s">
+        <v>322</v>
+      </c>
+      <c r="E39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" t="s">
+        <v>391</v>
+      </c>
+      <c r="G39" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39" t="s">
+        <v>471</v>
+      </c>
+      <c r="I39" s="1">
+        <v>35203</v>
+      </c>
+      <c r="J39" s="1">
+        <v>44789</v>
+      </c>
+      <c r="K39" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>109</v>
+      </c>
+      <c r="N39" t="s">
+        <v>125</v>
+      </c>
+      <c r="O39" s="1">
+        <v>44969</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>571</v>
+      </c>
+      <c r="B40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" t="s">
+        <v>221</v>
+      </c>
+      <c r="D40" t="s">
+        <v>323</v>
+      </c>
+      <c r="E40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" t="s">
+        <v>392</v>
+      </c>
+      <c r="G40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" t="s">
+        <v>472</v>
+      </c>
+      <c r="I40" s="1">
+        <v>35876</v>
+      </c>
+      <c r="J40" s="1">
+        <v>44258</v>
+      </c>
+      <c r="K40" t="s">
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
+        <v>115</v>
+      </c>
+      <c r="M40" t="s">
+        <v>119</v>
+      </c>
+      <c r="N40" t="s">
+        <v>120</v>
+      </c>
+      <c r="O40" s="1">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>572</v>
+      </c>
+      <c r="B41" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" t="s">
+        <v>222</v>
+      </c>
+      <c r="D41" t="s">
+        <v>324</v>
+      </c>
+      <c r="E41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" t="s">
+        <v>393</v>
+      </c>
+      <c r="G41" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" t="s">
+        <v>473</v>
+      </c>
+      <c r="I41" s="1">
+        <v>31992</v>
+      </c>
+      <c r="J41" s="1">
+        <v>45363</v>
+      </c>
+      <c r="K41" t="s">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>115</v>
+      </c>
+      <c r="M41" t="s">
+        <v>119</v>
+      </c>
+      <c r="N41" t="s">
+        <v>120</v>
+      </c>
+      <c r="O41" s="1">
+        <v>45543</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>573</v>
+      </c>
+      <c r="B42" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" t="s">
+        <v>223</v>
+      </c>
+      <c r="D42" t="s">
+        <v>325</v>
+      </c>
+      <c r="E42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" t="s">
+        <v>394</v>
+      </c>
+      <c r="G42" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" t="s">
+        <v>474</v>
+      </c>
+      <c r="I42" s="1">
+        <v>36866</v>
+      </c>
+      <c r="J42" s="1">
+        <v>45568</v>
+      </c>
+      <c r="K42" t="s">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>115</v>
+      </c>
+      <c r="M42" t="s">
+        <v>119</v>
+      </c>
+      <c r="N42" t="s">
+        <v>120</v>
+      </c>
+      <c r="O42" s="1">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>574</v>
+      </c>
+      <c r="B43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43" t="s">
+        <v>326</v>
+      </c>
+      <c r="E43" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" t="s">
+        <v>395</v>
+      </c>
+      <c r="G43" t="s">
+        <v>73</v>
+      </c>
+      <c r="H43" t="s">
+        <v>475</v>
+      </c>
+      <c r="I43" s="1">
+        <v>31339</v>
+      </c>
+      <c r="J43" s="1">
+        <v>45134</v>
+      </c>
+      <c r="K43" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>115</v>
+      </c>
+      <c r="M43" t="s">
+        <v>118</v>
+      </c>
+      <c r="N43" t="s">
+        <v>120</v>
+      </c>
+      <c r="O43" s="1">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>575</v>
+      </c>
+      <c r="B44" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" t="s">
+        <v>327</v>
+      </c>
+      <c r="E44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" t="s">
+        <v>396</v>
+      </c>
+      <c r="G44" t="s">
+        <v>74</v>
+      </c>
+      <c r="H44" t="s">
+        <v>476</v>
+      </c>
+      <c r="I44" s="1">
+        <v>31579</v>
+      </c>
+      <c r="J44" s="1">
+        <v>44273</v>
+      </c>
+      <c r="K44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>115</v>
+      </c>
+      <c r="M44" t="s">
+        <v>117</v>
+      </c>
+      <c r="N44" t="s">
+        <v>120</v>
+      </c>
+      <c r="O44" s="1">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>576</v>
+      </c>
+      <c r="B45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45" t="s">
+        <v>328</v>
+      </c>
+      <c r="E45" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" t="s">
+        <v>397</v>
+      </c>
+      <c r="G45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H45" t="s">
+        <v>477</v>
+      </c>
+      <c r="I45" s="1">
+        <v>35600</v>
+      </c>
+      <c r="J45" s="1">
+        <v>44953</v>
+      </c>
+      <c r="K45" t="s">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>115</v>
+      </c>
+      <c r="M45" t="s">
+        <v>117</v>
+      </c>
+      <c r="N45" t="s">
+        <v>120</v>
+      </c>
+      <c r="O45" s="1">
+        <v>45133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>577</v>
+      </c>
+      <c r="B46" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" t="s">
+        <v>227</v>
+      </c>
+      <c r="D46" t="s">
+        <v>329</v>
+      </c>
+      <c r="E46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" t="s">
+        <v>398</v>
+      </c>
+      <c r="G46" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" t="s">
+        <v>478</v>
+      </c>
+      <c r="I46" s="1">
+        <v>36413</v>
+      </c>
+      <c r="J46" s="1">
+        <v>43896</v>
+      </c>
+      <c r="K46" t="s">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>112</v>
+      </c>
+      <c r="M46" t="s">
+        <v>118</v>
+      </c>
+      <c r="O46" s="1">
+        <v>44076</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>578</v>
+      </c>
+      <c r="B47" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" t="s">
+        <v>399</v>
+      </c>
+      <c r="G47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H47" t="s">
+        <v>479</v>
+      </c>
+      <c r="I47" s="1">
+        <v>34984</v>
+      </c>
+      <c r="J47" s="1">
+        <v>45238</v>
+      </c>
+      <c r="K47" t="s">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>115</v>
+      </c>
+      <c r="M47" t="s">
+        <v>119</v>
+      </c>
+      <c r="N47" t="s">
+        <v>120</v>
+      </c>
+      <c r="O47" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>579</v>
+      </c>
+      <c r="B48" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48" t="s">
+        <v>330</v>
+      </c>
+      <c r="E48" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" t="s">
+        <v>400</v>
+      </c>
+      <c r="G48" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" t="s">
+        <v>480</v>
+      </c>
+      <c r="I48" s="1">
+        <v>32246</v>
+      </c>
+      <c r="J48" s="1">
+        <v>44997</v>
+      </c>
+      <c r="K48" t="s">
+        <v>0</v>
+      </c>
+      <c r="L48" t="s">
+        <v>112</v>
+      </c>
+      <c r="M48" t="s">
+        <v>118</v>
+      </c>
+      <c r="O48" s="1">
+        <v>45177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>580</v>
+      </c>
+      <c r="B49" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49" t="s">
+        <v>229</v>
+      </c>
+      <c r="D49" t="s">
+        <v>331</v>
+      </c>
+      <c r="E49" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" t="s">
+        <v>401</v>
+      </c>
+      <c r="G49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H49" t="s">
+        <v>481</v>
+      </c>
+      <c r="I49" s="1">
+        <v>35983</v>
+      </c>
+      <c r="J49" s="1">
+        <v>44546</v>
+      </c>
+      <c r="K49" t="s">
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
+        <v>112</v>
+      </c>
+      <c r="M49" t="s">
+        <v>118</v>
+      </c>
+      <c r="O49" s="1">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>581</v>
+      </c>
+      <c r="B50" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" t="s">
+        <v>230</v>
+      </c>
+      <c r="D50" t="s">
+        <v>332</v>
+      </c>
+      <c r="E50" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" t="s">
+        <v>402</v>
+      </c>
+      <c r="G50" t="s">
+        <v>80</v>
+      </c>
+      <c r="H50" t="s">
+        <v>482</v>
+      </c>
+      <c r="I50" s="1">
+        <v>26680</v>
+      </c>
+      <c r="J50" s="1">
+        <v>45535</v>
+      </c>
+      <c r="K50" t="s">
+        <v>0</v>
+      </c>
+      <c r="L50" t="s">
+        <v>112</v>
+      </c>
+      <c r="M50" t="s">
+        <v>118</v>
+      </c>
+      <c r="O50" s="1">
+        <v>45715</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>582</v>
+      </c>
+      <c r="B51" t="s">
+        <v>183</v>
+      </c>
+      <c r="C51" t="s">
+        <v>231</v>
+      </c>
+      <c r="D51" t="s">
+        <v>333</v>
+      </c>
+      <c r="E51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" t="s">
+        <v>403</v>
+      </c>
+      <c r="G51" t="s">
+        <v>81</v>
+      </c>
+      <c r="H51" t="s">
+        <v>483</v>
+      </c>
+      <c r="I51" s="1">
+        <v>26509</v>
+      </c>
+      <c r="J51" s="1">
+        <v>44089</v>
+      </c>
+      <c r="K51" t="s">
+        <v>0</v>
+      </c>
+      <c r="L51" t="s">
+        <v>112</v>
+      </c>
+      <c r="M51" t="s">
+        <v>118</v>
+      </c>
+      <c r="O51" s="1">
+        <v>44269</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>583</v>
+      </c>
+      <c r="B52" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52" t="s">
+        <v>232</v>
+      </c>
+      <c r="D52" t="s">
+        <v>334</v>
+      </c>
+      <c r="E52" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" t="s">
+        <v>404</v>
+      </c>
+      <c r="G52" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52" t="s">
+        <v>484</v>
+      </c>
+      <c r="I52" s="1">
+        <v>32102</v>
+      </c>
+      <c r="J52" s="1">
+        <v>44708</v>
+      </c>
+      <c r="K52" t="s">
+        <v>0</v>
+      </c>
+      <c r="L52" t="s">
+        <v>115</v>
+      </c>
+      <c r="M52" t="s">
+        <v>119</v>
+      </c>
+      <c r="N52" t="s">
+        <v>641</v>
+      </c>
+      <c r="O52" s="1">
+        <v>44888</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>584</v>
+      </c>
+      <c r="B53" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" t="s">
+        <v>233</v>
+      </c>
+      <c r="D53" t="s">
+        <v>335</v>
+      </c>
+      <c r="E53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" t="s">
+        <v>405</v>
+      </c>
+      <c r="G53" t="s">
+        <v>83</v>
+      </c>
+      <c r="H53" t="s">
+        <v>485</v>
+      </c>
+      <c r="I53" s="1">
+        <v>34819</v>
+      </c>
+      <c r="J53" s="1">
+        <v>45116</v>
+      </c>
+      <c r="K53" t="s">
+        <v>0</v>
+      </c>
+      <c r="L53" t="s">
+        <v>115</v>
+      </c>
+      <c r="M53" t="s">
+        <v>117</v>
+      </c>
+      <c r="N53" t="s">
+        <v>641</v>
+      </c>
+      <c r="O53" s="1">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>585</v>
+      </c>
+      <c r="B54" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" t="s">
+        <v>234</v>
+      </c>
+      <c r="D54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" t="s">
+        <v>406</v>
+      </c>
+      <c r="G54" t="s">
+        <v>84</v>
+      </c>
+      <c r="H54" t="s">
+        <v>486</v>
+      </c>
+      <c r="I54" s="1">
+        <v>35532</v>
+      </c>
+      <c r="J54" s="1">
+        <v>43817</v>
+      </c>
+      <c r="K54" t="s">
+        <v>0</v>
+      </c>
+      <c r="L54" t="s">
+        <v>115</v>
+      </c>
+      <c r="M54" t="s">
+        <v>119</v>
+      </c>
+      <c r="N54" t="s">
+        <v>641</v>
+      </c>
+      <c r="O54" s="1">
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>586</v>
+      </c>
+      <c r="B55" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D55" t="s">
+        <v>336</v>
+      </c>
+      <c r="E55" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" t="s">
+        <v>407</v>
+      </c>
+      <c r="G55" t="s">
+        <v>85</v>
+      </c>
+      <c r="H55" t="s">
+        <v>487</v>
+      </c>
+      <c r="I55" s="1">
+        <v>34005</v>
+      </c>
+      <c r="J55" s="1">
+        <v>43914</v>
+      </c>
+      <c r="K55" t="s">
+        <v>0</v>
+      </c>
+      <c r="L55" t="s">
+        <v>115</v>
+      </c>
+      <c r="M55" t="s">
+        <v>119</v>
+      </c>
+      <c r="N55" t="s">
+        <v>642</v>
+      </c>
+      <c r="O55" s="1">
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>587</v>
+      </c>
+      <c r="B56" t="s">
+        <v>188</v>
+      </c>
+      <c r="C56" t="s">
+        <v>236</v>
+      </c>
+      <c r="D56" t="s">
+        <v>337</v>
+      </c>
+      <c r="E56" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" t="s">
+        <v>408</v>
+      </c>
+      <c r="G56" t="s">
+        <v>86</v>
+      </c>
+      <c r="H56" t="s">
+        <v>488</v>
+      </c>
+      <c r="I56" s="1">
+        <v>36002</v>
+      </c>
+      <c r="J56" s="1">
+        <v>44537</v>
+      </c>
+      <c r="K56" t="s">
+        <v>0</v>
+      </c>
+      <c r="L56" t="s">
+        <v>115</v>
+      </c>
+      <c r="M56" t="s">
+        <v>117</v>
+      </c>
+      <c r="N56" t="s">
+        <v>642</v>
+      </c>
+      <c r="O56" s="1">
+        <v>44717</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>588</v>
+      </c>
+      <c r="B57" t="s">
+        <v>189</v>
+      </c>
+      <c r="C57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D57" t="s">
+        <v>338</v>
+      </c>
+      <c r="E57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" t="s">
+        <v>409</v>
+      </c>
+      <c r="G57" t="s">
+        <v>87</v>
+      </c>
+      <c r="H57" t="s">
+        <v>489</v>
+      </c>
+      <c r="I57" s="1">
+        <v>34894</v>
+      </c>
+      <c r="J57" s="1">
+        <v>43910</v>
+      </c>
+      <c r="K57" t="s">
+        <v>0</v>
+      </c>
+      <c r="L57" t="s">
+        <v>112</v>
+      </c>
+      <c r="M57" t="s">
+        <v>118</v>
+      </c>
+      <c r="O57" s="1">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>589</v>
+      </c>
+      <c r="B58" t="s">
+        <v>190</v>
+      </c>
+      <c r="C58" t="s">
+        <v>238</v>
+      </c>
+      <c r="D58" t="s">
+        <v>339</v>
+      </c>
+      <c r="E58" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" t="s">
+        <v>410</v>
+      </c>
+      <c r="G58" t="s">
+        <v>88</v>
+      </c>
+      <c r="H58" t="s">
+        <v>490</v>
+      </c>
+      <c r="I58" s="1">
+        <v>35203</v>
+      </c>
+      <c r="J58" s="1">
+        <v>44789</v>
+      </c>
+      <c r="K58" t="s">
+        <v>0</v>
+      </c>
+      <c r="L58" t="s">
+        <v>112</v>
+      </c>
+      <c r="M58" t="s">
+        <v>118</v>
+      </c>
+      <c r="O58" s="1">
+        <v>44969</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>590</v>
+      </c>
+      <c r="B59" t="s">
+        <v>191</v>
+      </c>
+      <c r="C59" t="s">
+        <v>239</v>
+      </c>
+      <c r="D59" t="s">
+        <v>340</v>
+      </c>
+      <c r="E59" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" t="s">
+        <v>411</v>
+      </c>
+      <c r="G59" t="s">
+        <v>70</v>
+      </c>
+      <c r="H59" t="s">
+        <v>491</v>
+      </c>
+      <c r="I59" s="1">
+        <v>35849</v>
+      </c>
+      <c r="J59" s="1">
+        <v>44258</v>
+      </c>
+      <c r="K59" t="s">
+        <v>0</v>
+      </c>
+      <c r="L59" t="s">
+        <v>112</v>
+      </c>
+      <c r="M59" t="s">
+        <v>118</v>
+      </c>
+      <c r="O59" s="1">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>591</v>
+      </c>
+      <c r="B60" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" t="s">
+        <v>240</v>
+      </c>
+      <c r="D60" t="s">
+        <v>341</v>
+      </c>
+      <c r="E60" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" t="s">
+        <v>412</v>
+      </c>
+      <c r="G60" t="s">
+        <v>71</v>
+      </c>
+      <c r="H60" t="s">
+        <v>492</v>
+      </c>
+      <c r="I60" s="1">
+        <v>31962</v>
+      </c>
+      <c r="J60" s="1">
+        <v>45363</v>
+      </c>
+      <c r="K60" t="s">
+        <v>0</v>
+      </c>
+      <c r="L60" t="s">
+        <v>112</v>
+      </c>
+      <c r="M60" t="s">
+        <v>118</v>
+      </c>
+      <c r="O60" s="1">
+        <v>45543</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>592</v>
+      </c>
+      <c r="B61" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" t="s">
+        <v>241</v>
+      </c>
+      <c r="E61" t="s">
+        <v>69</v>
+      </c>
+      <c r="F61" t="s">
+        <v>413</v>
+      </c>
+      <c r="G61" t="s">
+        <v>72</v>
+      </c>
+      <c r="H61" t="s">
+        <v>493</v>
+      </c>
+      <c r="I61" s="1">
+        <v>36837</v>
+      </c>
+      <c r="J61" s="1">
+        <v>45568</v>
+      </c>
+      <c r="K61" t="s">
+        <v>0</v>
+      </c>
+      <c r="L61" t="s">
+        <v>112</v>
+      </c>
+      <c r="M61" t="s">
+        <v>118</v>
+      </c>
+      <c r="O61" s="1">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>593</v>
+      </c>
+      <c r="B62" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" t="s">
+        <v>242</v>
+      </c>
+      <c r="D62" t="s">
+        <v>342</v>
+      </c>
+      <c r="E62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" t="s">
+        <v>414</v>
+      </c>
+      <c r="G62" t="s">
+        <v>73</v>
+      </c>
+      <c r="H62" t="s">
+        <v>494</v>
+      </c>
+      <c r="I62" s="1">
+        <v>31310</v>
+      </c>
+      <c r="J62" s="1">
+        <v>45134</v>
+      </c>
+      <c r="K62" t="s">
+        <v>0</v>
+      </c>
+      <c r="L62" t="s">
+        <v>115</v>
+      </c>
+      <c r="M62" t="s">
+        <v>119</v>
+      </c>
+      <c r="N62" t="s">
+        <v>640</v>
+      </c>
+      <c r="O62" s="1">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>594</v>
+      </c>
+      <c r="B63" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" t="s">
+        <v>243</v>
+      </c>
+      <c r="D63" t="s">
+        <v>343</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+      <c r="F63" t="s">
+        <v>415</v>
+      </c>
+      <c r="G63" t="s">
+        <v>74</v>
+      </c>
+      <c r="H63" t="s">
+        <v>495</v>
+      </c>
+      <c r="I63" s="1">
+        <v>31549</v>
+      </c>
+      <c r="J63" s="1">
+        <v>44273</v>
+      </c>
+      <c r="K63" t="s">
+        <v>0</v>
+      </c>
+      <c r="L63" t="s">
+        <v>115</v>
+      </c>
+      <c r="M63" t="s">
+        <v>119</v>
+      </c>
+      <c r="N63" t="s">
+        <v>640</v>
+      </c>
+      <c r="O63" s="1">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>595</v>
+      </c>
+      <c r="B64" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" t="s">
+        <v>244</v>
+      </c>
+      <c r="D64" t="s">
+        <v>344</v>
+      </c>
+      <c r="E64" t="s">
+        <v>68</v>
+      </c>
+      <c r="F64" t="s">
+        <v>416</v>
+      </c>
+      <c r="G64" t="s">
+        <v>75</v>
+      </c>
+      <c r="H64" t="s">
+        <v>496</v>
+      </c>
+      <c r="I64" s="1">
+        <v>35570</v>
+      </c>
+      <c r="J64" s="1">
+        <v>44953</v>
+      </c>
+      <c r="K64" t="s">
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>115</v>
+      </c>
+      <c r="M64" t="s">
+        <v>117</v>
+      </c>
+      <c r="N64" t="s">
+        <v>640</v>
+      </c>
+      <c r="O64" s="1">
+        <v>45133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>596</v>
+      </c>
+      <c r="B65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" t="s">
+        <v>245</v>
+      </c>
+      <c r="D65" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" t="s">
+        <v>69</v>
+      </c>
+      <c r="F65" t="s">
+        <v>417</v>
+      </c>
+      <c r="G65" t="s">
+        <v>76</v>
+      </c>
+      <c r="H65" t="s">
+        <v>497</v>
+      </c>
+      <c r="I65" s="1">
+        <v>36382</v>
+      </c>
+      <c r="J65" s="1">
+        <v>43867</v>
+      </c>
+      <c r="K65" t="s">
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>112</v>
+      </c>
+      <c r="M65" t="s">
+        <v>118</v>
+      </c>
+      <c r="O65" s="1">
+        <v>44047</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>597</v>
+      </c>
+      <c r="B66" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" t="s">
+        <v>345</v>
+      </c>
+      <c r="E66" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" t="s">
+        <v>418</v>
+      </c>
+      <c r="G66" t="s">
+        <v>77</v>
+      </c>
+      <c r="H66" t="s">
+        <v>498</v>
+      </c>
+      <c r="I66" s="1">
+        <v>34954</v>
+      </c>
+      <c r="J66" s="1">
+        <v>45238</v>
+      </c>
+      <c r="K66" t="s">
+        <v>0</v>
+      </c>
+      <c r="L66" t="s">
+        <v>112</v>
+      </c>
+      <c r="M66" t="s">
+        <v>118</v>
+      </c>
+      <c r="O66" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>598</v>
+      </c>
+      <c r="B67" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" t="s">
+        <v>246</v>
+      </c>
+      <c r="D67" t="s">
+        <v>346</v>
+      </c>
+      <c r="E67" t="s">
+        <v>69</v>
+      </c>
+      <c r="F67" t="s">
+        <v>419</v>
+      </c>
+      <c r="G67" t="s">
+        <v>78</v>
+      </c>
+      <c r="H67" t="s">
+        <v>499</v>
+      </c>
+      <c r="I67" s="1">
+        <v>32246</v>
+      </c>
+      <c r="J67" s="1">
+        <v>44969</v>
+      </c>
+      <c r="K67" t="s">
+        <v>0</v>
+      </c>
+      <c r="L67" t="s">
+        <v>109</v>
+      </c>
+      <c r="N67" t="s">
+        <v>126</v>
+      </c>
+      <c r="O67" s="1">
+        <v>45149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>599</v>
+      </c>
+      <c r="B68" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" t="s">
+        <v>247</v>
+      </c>
+      <c r="D68" t="s">
+        <v>347</v>
+      </c>
+      <c r="E68" t="s">
+        <v>68</v>
+      </c>
+      <c r="F68" t="s">
+        <v>420</v>
+      </c>
+      <c r="G68" t="s">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s">
+        <v>500</v>
+      </c>
+      <c r="I68" s="1">
+        <v>35983</v>
+      </c>
+      <c r="J68" s="1">
+        <v>44546</v>
+      </c>
+      <c r="K68" t="s">
+        <v>0</v>
+      </c>
+      <c r="L68" t="s">
+        <v>112</v>
+      </c>
+      <c r="M68" t="s">
+        <v>118</v>
+      </c>
+      <c r="O68" s="1">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>600</v>
+      </c>
+      <c r="B69" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" t="s">
+        <v>248</v>
+      </c>
+      <c r="D69" t="s">
+        <v>348</v>
+      </c>
+      <c r="E69" t="s">
+        <v>69</v>
+      </c>
+      <c r="F69" t="s">
+        <v>421</v>
+      </c>
+      <c r="G69" t="s">
+        <v>80</v>
+      </c>
+      <c r="H69" t="s">
+        <v>501</v>
+      </c>
+      <c r="I69" s="1">
+        <v>26681</v>
+      </c>
+      <c r="J69" s="1">
+        <v>45535</v>
+      </c>
+      <c r="K69" t="s">
+        <v>0</v>
+      </c>
+      <c r="L69" t="s">
+        <v>112</v>
+      </c>
+      <c r="M69" t="s">
+        <v>118</v>
+      </c>
+      <c r="O69" s="1">
+        <v>45715</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>601</v>
+      </c>
+      <c r="B70" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" t="s">
+        <v>249</v>
+      </c>
+      <c r="D70" t="s">
+        <v>349</v>
+      </c>
+      <c r="E70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F70" t="s">
+        <v>422</v>
+      </c>
+      <c r="G70" t="s">
+        <v>81</v>
+      </c>
+      <c r="H70" t="s">
+        <v>502</v>
+      </c>
+      <c r="I70" s="1">
+        <v>26143</v>
+      </c>
+      <c r="J70" s="1">
+        <v>44089</v>
+      </c>
+      <c r="K70" t="s">
+        <v>0</v>
+      </c>
+      <c r="L70" t="s">
+        <v>109</v>
+      </c>
+      <c r="N70" t="s">
+        <v>644</v>
+      </c>
+      <c r="O70" s="1">
+        <v>44269</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>602</v>
+      </c>
+      <c r="B71" t="s">
+        <v>250</v>
+      </c>
+      <c r="C71" t="s">
+        <v>280</v>
+      </c>
+      <c r="D71" t="s">
+        <v>350</v>
+      </c>
+      <c r="E71" t="s">
+        <v>69</v>
+      </c>
+      <c r="F71" t="s">
+        <v>423</v>
+      </c>
+      <c r="G71" t="s">
+        <v>82</v>
+      </c>
+      <c r="H71" t="s">
+        <v>503</v>
+      </c>
+      <c r="I71" s="1">
+        <v>32102</v>
+      </c>
+      <c r="J71" s="1">
+        <v>44708</v>
+      </c>
+      <c r="K71" t="s">
+        <v>0</v>
+      </c>
+      <c r="L71" t="s">
+        <v>112</v>
+      </c>
+      <c r="M71" t="s">
+        <v>118</v>
+      </c>
+      <c r="O71" s="1">
+        <v>44888</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>603</v>
+      </c>
+      <c r="B72" t="s">
+        <v>251</v>
+      </c>
+      <c r="C72" t="s">
+        <v>215</v>
+      </c>
+      <c r="E72" t="s">
+        <v>69</v>
+      </c>
+      <c r="F72" t="s">
+        <v>424</v>
+      </c>
+      <c r="G72" t="s">
+        <v>83</v>
+      </c>
+      <c r="H72" t="s">
+        <v>504</v>
+      </c>
+      <c r="I72" s="1">
+        <v>34819</v>
+      </c>
+      <c r="J72" s="1">
+        <v>45116</v>
+      </c>
+      <c r="K72" t="s">
+        <v>0</v>
+      </c>
+      <c r="L72" t="s">
+        <v>115</v>
+      </c>
+      <c r="M72" t="s">
+        <v>119</v>
+      </c>
+      <c r="N72" t="s">
+        <v>123</v>
+      </c>
+      <c r="O72" s="1">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>604</v>
+      </c>
+      <c r="B73" t="s">
+        <v>252</v>
+      </c>
+      <c r="C73" t="s">
+        <v>281</v>
+      </c>
+      <c r="D73" t="s">
+        <v>351</v>
+      </c>
+      <c r="E73" t="s">
+        <v>69</v>
+      </c>
+      <c r="F73" t="s">
+        <v>425</v>
+      </c>
+      <c r="G73" t="s">
+        <v>84</v>
+      </c>
+      <c r="H73" t="s">
+        <v>505</v>
+      </c>
+      <c r="I73" s="1">
+        <v>35562</v>
+      </c>
+      <c r="J73" s="1">
+        <v>43817</v>
+      </c>
+      <c r="K73" t="s">
+        <v>0</v>
+      </c>
+      <c r="L73" t="s">
+        <v>112</v>
+      </c>
+      <c r="M73" t="s">
+        <v>118</v>
+      </c>
+      <c r="O73" s="1">
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>605</v>
+      </c>
+      <c r="B74" t="s">
+        <v>253</v>
+      </c>
+      <c r="C74" t="s">
+        <v>282</v>
+      </c>
+      <c r="D74" t="s">
+        <v>352</v>
+      </c>
+      <c r="E74" t="s">
+        <v>68</v>
+      </c>
+      <c r="F74" t="s">
+        <v>426</v>
+      </c>
+      <c r="G74" t="s">
+        <v>85</v>
+      </c>
+      <c r="H74" t="s">
+        <v>506</v>
+      </c>
+      <c r="I74" s="1">
+        <v>34005</v>
+      </c>
+      <c r="J74" s="1">
+        <v>43885</v>
+      </c>
+      <c r="K74" t="s">
+        <v>0</v>
+      </c>
+      <c r="L74" t="s">
+        <v>112</v>
+      </c>
+      <c r="M74" t="s">
+        <v>118</v>
+      </c>
+      <c r="O74" s="1">
+        <v>44065</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>606</v>
+      </c>
+      <c r="B75" t="s">
+        <v>254</v>
+      </c>
+      <c r="C75" t="s">
+        <v>283</v>
+      </c>
+      <c r="D75" t="s">
+        <v>353</v>
+      </c>
+      <c r="E75" t="s">
+        <v>68</v>
+      </c>
+      <c r="F75" t="s">
+        <v>427</v>
+      </c>
+      <c r="G75" t="s">
+        <v>86</v>
+      </c>
+      <c r="H75" t="s">
+        <v>507</v>
+      </c>
+      <c r="I75" s="1">
+        <v>36002</v>
+      </c>
+      <c r="J75" s="1">
+        <v>44537</v>
+      </c>
+      <c r="K75" t="s">
+        <v>0</v>
+      </c>
+      <c r="L75" t="s">
+        <v>112</v>
+      </c>
+      <c r="M75" t="s">
+        <v>118</v>
+      </c>
+      <c r="O75" s="1">
+        <v>44717</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>607</v>
+      </c>
+      <c r="B76" t="s">
+        <v>255</v>
+      </c>
+      <c r="C76" t="s">
+        <v>284</v>
+      </c>
+      <c r="D76" t="s">
+        <v>325</v>
+      </c>
+      <c r="E76" t="s">
+        <v>68</v>
+      </c>
+      <c r="F76" t="s">
+        <v>428</v>
+      </c>
+      <c r="G76" t="s">
+        <v>87</v>
+      </c>
+      <c r="H76" t="s">
+        <v>508</v>
+      </c>
+      <c r="I76" s="1">
+        <v>34894</v>
+      </c>
+      <c r="J76" s="1">
+        <v>43910</v>
+      </c>
+      <c r="K76" t="s">
+        <v>0</v>
+      </c>
+      <c r="L76" t="s">
+        <v>112</v>
+      </c>
+      <c r="M76" t="s">
+        <v>118</v>
+      </c>
+      <c r="O76" s="1">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>608</v>
+      </c>
+      <c r="B77" t="s">
+        <v>256</v>
+      </c>
+      <c r="C77" t="s">
+        <v>285</v>
+      </c>
+      <c r="D77" t="s">
+        <v>354</v>
+      </c>
+      <c r="E77" t="s">
+        <v>68</v>
+      </c>
+      <c r="F77" t="s">
+        <v>429</v>
+      </c>
+      <c r="G77" t="s">
+        <v>88</v>
+      </c>
+      <c r="H77" t="s">
+        <v>509</v>
+      </c>
+      <c r="I77" s="1">
+        <v>35203</v>
+      </c>
+      <c r="J77" s="1">
+        <v>44789</v>
+      </c>
+      <c r="K77" t="s">
+        <v>0</v>
+      </c>
+      <c r="L77" t="s">
+        <v>115</v>
+      </c>
+      <c r="M77" t="s">
+        <v>117</v>
+      </c>
+      <c r="N77" t="s">
+        <v>639</v>
+      </c>
+      <c r="O77" s="1">
+        <v>44969</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>609</v>
+      </c>
+      <c r="B78" t="s">
+        <v>257</v>
+      </c>
+      <c r="C78" t="s">
+        <v>286</v>
+      </c>
+      <c r="D78" t="s">
+        <v>355</v>
+      </c>
+      <c r="E78" t="s">
+        <v>69</v>
+      </c>
+      <c r="F78" t="s">
+        <v>430</v>
+      </c>
+      <c r="G78" t="s">
+        <v>70</v>
+      </c>
+      <c r="H78" t="s">
+        <v>510</v>
+      </c>
+      <c r="I78" s="1">
+        <v>35938</v>
+      </c>
+      <c r="J78" s="1">
+        <v>44257</v>
+      </c>
+      <c r="K78" t="s">
+        <v>0</v>
+      </c>
+      <c r="L78" t="s">
+        <v>115</v>
+      </c>
+      <c r="M78" t="s">
+        <v>119</v>
+      </c>
+      <c r="N78" t="s">
+        <v>645</v>
+      </c>
+      <c r="O78" s="1">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>610</v>
+      </c>
+      <c r="B79" t="s">
+        <v>258</v>
+      </c>
+      <c r="C79" t="s">
+        <v>287</v>
+      </c>
+      <c r="E79" t="s">
+        <v>68</v>
+      </c>
+      <c r="F79" t="s">
+        <v>431</v>
+      </c>
+      <c r="G79" t="s">
+        <v>71</v>
+      </c>
+      <c r="H79" t="s">
+        <v>511</v>
+      </c>
+      <c r="I79" s="1">
+        <v>31994</v>
+      </c>
+      <c r="J79" s="1">
+        <v>45363</v>
+      </c>
+      <c r="K79" t="s">
+        <v>0</v>
+      </c>
+      <c r="L79" t="s">
+        <v>115</v>
+      </c>
+      <c r="M79" t="s">
+        <v>119</v>
+      </c>
+      <c r="N79" t="s">
+        <v>645</v>
+      </c>
+      <c r="O79" s="1">
+        <v>45543</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>611</v>
+      </c>
+      <c r="B80" t="s">
+        <v>259</v>
+      </c>
+      <c r="C80" t="s">
+        <v>288</v>
+      </c>
+      <c r="D80" t="s">
+        <v>356</v>
+      </c>
+      <c r="E80" t="s">
+        <v>69</v>
+      </c>
+      <c r="F80" t="s">
+        <v>432</v>
+      </c>
+      <c r="G80" t="s">
+        <v>72</v>
+      </c>
+      <c r="H80" t="s">
+        <v>512</v>
+      </c>
+      <c r="I80" s="1">
+        <v>29196</v>
+      </c>
+      <c r="J80" s="1">
+        <v>45568</v>
+      </c>
+      <c r="K80" t="s">
+        <v>0</v>
+      </c>
+      <c r="L80" t="s">
+        <v>112</v>
+      </c>
+      <c r="M80" t="s">
+        <v>118</v>
+      </c>
+      <c r="O80" s="1">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>612</v>
+      </c>
+      <c r="B81" t="s">
+        <v>260</v>
+      </c>
+      <c r="C81" t="s">
+        <v>289</v>
+      </c>
+      <c r="D81" t="s">
+        <v>357</v>
+      </c>
+      <c r="E81" t="s">
+        <v>68</v>
+      </c>
+      <c r="F81" t="s">
+        <v>433</v>
+      </c>
+      <c r="G81" t="s">
+        <v>73</v>
+      </c>
+      <c r="H81" t="s">
+        <v>513</v>
+      </c>
+      <c r="I81" s="1">
+        <v>31340</v>
+      </c>
+      <c r="J81" s="1">
+        <v>45134</v>
+      </c>
+      <c r="K81" t="s">
+        <v>0</v>
+      </c>
+      <c r="L81" t="s">
+        <v>112</v>
+      </c>
+      <c r="M81" t="s">
+        <v>118</v>
+      </c>
+      <c r="O81" s="1">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>613</v>
+      </c>
+      <c r="B82" t="s">
+        <v>261</v>
+      </c>
+      <c r="C82" t="s">
+        <v>290</v>
+      </c>
+      <c r="D82" t="s">
+        <v>358</v>
+      </c>
+      <c r="E82" t="s">
+        <v>69</v>
+      </c>
+      <c r="F82" t="s">
+        <v>434</v>
+      </c>
+      <c r="G82" t="s">
+        <v>74</v>
+      </c>
+      <c r="H82" t="s">
+        <v>514</v>
+      </c>
+      <c r="I82" s="1">
+        <v>31610</v>
+      </c>
+      <c r="J82" s="1">
+        <v>44273</v>
+      </c>
+      <c r="K82" t="s">
+        <v>0</v>
+      </c>
+      <c r="L82" t="s">
+        <v>115</v>
+      </c>
+      <c r="M82" t="s">
+        <v>119</v>
+      </c>
+      <c r="N82" t="s">
+        <v>638</v>
+      </c>
+      <c r="O82" s="1">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>614</v>
+      </c>
+      <c r="B83" t="s">
+        <v>262</v>
+      </c>
+      <c r="C83" t="s">
+        <v>291</v>
+      </c>
+      <c r="D83" t="s">
+        <v>359</v>
+      </c>
+      <c r="E83" t="s">
+        <v>68</v>
+      </c>
+      <c r="F83" t="s">
+        <v>435</v>
+      </c>
+      <c r="G83" t="s">
+        <v>75</v>
+      </c>
+      <c r="H83" t="s">
+        <v>515</v>
+      </c>
+      <c r="I83" s="1">
+        <v>35692</v>
+      </c>
+      <c r="J83" s="1">
+        <v>44956</v>
+      </c>
+      <c r="K83" t="s">
+        <v>0</v>
+      </c>
+      <c r="L83" t="s">
+        <v>115</v>
+      </c>
+      <c r="M83" t="s">
+        <v>117</v>
+      </c>
+      <c r="N83" t="s">
+        <v>638</v>
+      </c>
+      <c r="O83" s="1">
+        <v>45136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>615</v>
+      </c>
+      <c r="B84" t="s">
+        <v>263</v>
+      </c>
+      <c r="C84" t="s">
+        <v>292</v>
+      </c>
+      <c r="D84" t="s">
+        <v>360</v>
+      </c>
+      <c r="E84" t="s">
+        <v>69</v>
+      </c>
+      <c r="F84" t="s">
+        <v>436</v>
+      </c>
+      <c r="G84" t="s">
+        <v>76</v>
+      </c>
+      <c r="H84" t="s">
+        <v>516</v>
+      </c>
+      <c r="I84" s="1">
+        <v>36413</v>
+      </c>
+      <c r="J84" s="1">
+        <v>43867</v>
+      </c>
+      <c r="K84" t="s">
+        <v>0</v>
+      </c>
+      <c r="L84" t="s">
+        <v>112</v>
+      </c>
+      <c r="O84" s="1">
+        <v>44047</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>616</v>
+      </c>
+      <c r="B85" t="s">
+        <v>264</v>
+      </c>
+      <c r="C85" t="s">
+        <v>293</v>
+      </c>
+      <c r="D85" t="s">
+        <v>361</v>
+      </c>
+      <c r="E85" t="s">
+        <v>68</v>
+      </c>
+      <c r="F85" t="s">
+        <v>437</v>
+      </c>
+      <c r="G85" t="s">
+        <v>77</v>
+      </c>
+      <c r="H85" t="s">
+        <v>517</v>
+      </c>
+      <c r="I85" s="1">
+        <v>34984</v>
+      </c>
+      <c r="J85" s="1">
+        <v>45238</v>
+      </c>
+      <c r="K85" t="s">
+        <v>0</v>
+      </c>
+      <c r="L85" t="s">
+        <v>112</v>
+      </c>
+      <c r="O85" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>617</v>
+      </c>
+      <c r="B86" t="s">
+        <v>265</v>
+      </c>
+      <c r="C86" t="s">
+        <v>294</v>
+      </c>
+      <c r="E86" t="s">
+        <v>69</v>
+      </c>
+      <c r="F86" t="s">
+        <v>438</v>
+      </c>
+      <c r="G86" t="s">
+        <v>78</v>
+      </c>
+      <c r="H86" t="s">
+        <v>518</v>
+      </c>
+      <c r="I86" s="1">
+        <v>32276</v>
+      </c>
+      <c r="J86" s="1">
+        <v>44969</v>
+      </c>
+      <c r="K86" t="s">
+        <v>0</v>
+      </c>
+      <c r="L86" t="s">
+        <v>112</v>
+      </c>
+      <c r="O86" s="1">
+        <v>45149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>618</v>
+      </c>
+      <c r="B87" t="s">
+        <v>266</v>
+      </c>
+      <c r="C87" t="s">
+        <v>295</v>
+      </c>
+      <c r="D87" t="s">
+        <v>362</v>
+      </c>
+      <c r="E87" t="s">
+        <v>69</v>
+      </c>
+      <c r="F87" t="s">
+        <v>439</v>
+      </c>
+      <c r="G87" t="s">
+        <v>79</v>
+      </c>
+      <c r="H87" t="s">
+        <v>519</v>
+      </c>
+      <c r="I87" s="1">
+        <v>36047</v>
+      </c>
+      <c r="J87" s="1">
+        <v>44546</v>
+      </c>
+      <c r="K87" t="s">
+        <v>0</v>
+      </c>
+      <c r="L87" t="s">
+        <v>112</v>
+      </c>
+      <c r="O87" s="1">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>619</v>
+      </c>
+      <c r="B88" t="s">
+        <v>267</v>
+      </c>
+      <c r="C88" t="s">
+        <v>296</v>
+      </c>
+      <c r="D88" t="s">
+        <v>363</v>
+      </c>
+      <c r="E88" t="s">
+        <v>69</v>
+      </c>
+      <c r="F88" t="s">
+        <v>440</v>
+      </c>
+      <c r="G88" t="s">
+        <v>80</v>
+      </c>
+      <c r="H88" t="s">
+        <v>520</v>
+      </c>
+      <c r="I88" s="1">
+        <v>29237</v>
+      </c>
+      <c r="J88" s="1">
+        <v>45535</v>
+      </c>
+      <c r="K88" t="s">
+        <v>0</v>
+      </c>
+      <c r="L88" t="s">
+        <v>112</v>
+      </c>
+      <c r="O88" s="1">
+        <v>45715</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>620</v>
+      </c>
+      <c r="B89" t="s">
+        <v>268</v>
+      </c>
+      <c r="C89" t="s">
+        <v>297</v>
+      </c>
+      <c r="D89" t="s">
+        <v>364</v>
+      </c>
+      <c r="E89" t="s">
+        <v>69</v>
+      </c>
+      <c r="F89" t="s">
+        <v>441</v>
+      </c>
+      <c r="G89" t="s">
+        <v>81</v>
+      </c>
+      <c r="H89" t="s">
+        <v>521</v>
+      </c>
+      <c r="I89" s="1">
+        <v>36798</v>
+      </c>
+      <c r="J89" s="1">
+        <v>44089</v>
+      </c>
+      <c r="K89" t="s">
+        <v>0</v>
+      </c>
+      <c r="L89" t="s">
+        <v>115</v>
+      </c>
+      <c r="M89" t="s">
+        <v>119</v>
+      </c>
+      <c r="N89" t="s">
+        <v>637</v>
+      </c>
+      <c r="O89" s="1">
+        <v>44269</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>621</v>
+      </c>
+      <c r="B90" t="s">
+        <v>269</v>
+      </c>
+      <c r="C90" t="s">
+        <v>298</v>
+      </c>
+      <c r="D90" t="s">
+        <v>365</v>
+      </c>
+      <c r="E90" t="s">
+        <v>69</v>
+      </c>
+      <c r="F90" t="s">
+        <v>442</v>
+      </c>
+      <c r="G90" t="s">
+        <v>82</v>
+      </c>
+      <c r="H90" t="s">
+        <v>522</v>
+      </c>
+      <c r="I90" s="1">
+        <v>32102</v>
+      </c>
+      <c r="J90" s="1">
+        <v>44711</v>
+      </c>
+      <c r="K90" t="s">
+        <v>0</v>
+      </c>
+      <c r="L90" t="s">
+        <v>112</v>
+      </c>
+      <c r="O90" s="1">
+        <v>44891</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>622</v>
+      </c>
+      <c r="B91" t="s">
+        <v>270</v>
+      </c>
+      <c r="C91" t="s">
+        <v>299</v>
+      </c>
+      <c r="E91" t="s">
+        <v>68</v>
+      </c>
+      <c r="F91" t="s">
+        <v>443</v>
+      </c>
+      <c r="G91" t="s">
+        <v>83</v>
+      </c>
+      <c r="H91" t="s">
+        <v>523</v>
+      </c>
+      <c r="I91" s="1">
+        <v>34849</v>
+      </c>
+      <c r="J91" s="1">
+        <v>45116</v>
+      </c>
+      <c r="K91" t="s">
+        <v>0</v>
+      </c>
+      <c r="L91" t="s">
+        <v>112</v>
+      </c>
+      <c r="O91" s="1">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>623</v>
+      </c>
+      <c r="B92" t="s">
+        <v>271</v>
+      </c>
+      <c r="C92" t="s">
+        <v>300</v>
+      </c>
+      <c r="D92" t="s">
+        <v>366</v>
+      </c>
+      <c r="E92" t="s">
+        <v>68</v>
+      </c>
+      <c r="F92" t="s">
+        <v>444</v>
+      </c>
+      <c r="G92" t="s">
+        <v>84</v>
+      </c>
+      <c r="H92" t="s">
+        <v>524</v>
+      </c>
+      <c r="I92" s="1">
+        <v>35562</v>
+      </c>
+      <c r="J92" s="1">
+        <v>43817</v>
+      </c>
+      <c r="K92" t="s">
+        <v>0</v>
+      </c>
+      <c r="L92" t="s">
+        <v>112</v>
+      </c>
+      <c r="O92" s="1">
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>624</v>
+      </c>
+      <c r="B93" t="s">
+        <v>272</v>
+      </c>
+      <c r="C93" t="s">
+        <v>301</v>
+      </c>
+      <c r="D93" t="s">
+        <v>367</v>
+      </c>
+      <c r="E93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F93" t="s">
+        <v>445</v>
+      </c>
+      <c r="G93" t="s">
+        <v>85</v>
+      </c>
+      <c r="H93" t="s">
+        <v>525</v>
+      </c>
+      <c r="I93" s="1">
+        <v>34005</v>
+      </c>
+      <c r="J93" s="1">
+        <v>43885</v>
+      </c>
+      <c r="K93" t="s">
+        <v>0</v>
+      </c>
+      <c r="L93" t="s">
+        <v>115</v>
+      </c>
+      <c r="M93" t="s">
+        <v>119</v>
+      </c>
+      <c r="N93" t="s">
+        <v>635</v>
+      </c>
+      <c r="O93" s="1">
+        <v>44065</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>625</v>
+      </c>
+      <c r="B94" t="s">
+        <v>273</v>
+      </c>
+      <c r="C94" t="s">
+        <v>302</v>
+      </c>
+      <c r="D94" t="s">
+        <v>368</v>
+      </c>
+      <c r="E94" t="s">
+        <v>68</v>
+      </c>
+      <c r="F94" t="s">
+        <v>446</v>
+      </c>
+      <c r="G94" t="s">
+        <v>86</v>
+      </c>
+      <c r="H94" t="s">
+        <v>526</v>
+      </c>
+      <c r="I94" s="1">
+        <v>36064</v>
+      </c>
+      <c r="J94" s="1">
+        <v>44537</v>
+      </c>
+      <c r="K94" t="s">
+        <v>0</v>
+      </c>
+      <c r="L94" t="s">
+        <v>115</v>
+      </c>
+      <c r="M94" t="s">
+        <v>119</v>
+      </c>
+      <c r="N94" t="s">
+        <v>635</v>
+      </c>
+      <c r="O94" s="1">
+        <v>44717</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>626</v>
+      </c>
+      <c r="B95" t="s">
+        <v>274</v>
+      </c>
+      <c r="C95" t="s">
+        <v>303</v>
+      </c>
+      <c r="E95" t="s">
+        <v>69</v>
+      </c>
+      <c r="F95" t="s">
+        <v>447</v>
+      </c>
+      <c r="G95" t="s">
+        <v>87</v>
+      </c>
+      <c r="H95" t="s">
+        <v>527</v>
+      </c>
+      <c r="I95" s="1">
+        <v>34956</v>
+      </c>
+      <c r="J95" s="1">
+        <v>43910</v>
+      </c>
+      <c r="K95" t="s">
+        <v>0</v>
+      </c>
+      <c r="L95" t="s">
+        <v>109</v>
+      </c>
+      <c r="O95" s="1">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>627</v>
+      </c>
+      <c r="B96" t="s">
+        <v>275</v>
+      </c>
+      <c r="C96" t="s">
+        <v>304</v>
+      </c>
+      <c r="D96" t="s">
+        <v>369</v>
+      </c>
+      <c r="E96" t="s">
+        <v>68</v>
+      </c>
+      <c r="F96" t="s">
+        <v>448</v>
+      </c>
+      <c r="G96" t="s">
+        <v>88</v>
+      </c>
+      <c r="H96" t="s">
+        <v>528</v>
+      </c>
+      <c r="I96" s="1">
+        <v>35203</v>
+      </c>
+      <c r="J96" s="1">
+        <v>44789</v>
+      </c>
+      <c r="K96" t="s">
+        <v>0</v>
+      </c>
+      <c r="L96" t="s">
+        <v>115</v>
+      </c>
+      <c r="M96" t="s">
+        <v>119</v>
+      </c>
+      <c r="N96" t="s">
+        <v>636</v>
+      </c>
+      <c r="O96" s="1">
+        <v>44969</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>628</v>
+      </c>
+      <c r="B97" t="s">
+        <v>276</v>
+      </c>
+      <c r="C97" t="s">
+        <v>305</v>
+      </c>
+      <c r="D97" t="s">
+        <v>370</v>
+      </c>
+      <c r="E97" t="s">
+        <v>69</v>
+      </c>
+      <c r="F97" t="s">
+        <v>449</v>
+      </c>
+      <c r="G97" t="s">
+        <v>70</v>
+      </c>
+      <c r="H97" t="s">
+        <v>529</v>
+      </c>
+      <c r="I97" s="1">
+        <v>34033</v>
+      </c>
+      <c r="J97" s="1">
+        <v>44251</v>
+      </c>
+      <c r="K97" t="s">
+        <v>0</v>
+      </c>
+      <c r="L97" t="s">
+        <v>109</v>
+      </c>
+      <c r="O97" s="1">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>629</v>
+      </c>
+      <c r="B98" t="s">
+        <v>277</v>
+      </c>
+      <c r="C98" t="s">
+        <v>306</v>
+      </c>
+      <c r="E98" t="s">
+        <v>68</v>
+      </c>
+      <c r="F98" t="s">
+        <v>450</v>
+      </c>
+      <c r="G98" t="s">
+        <v>71</v>
+      </c>
+      <c r="H98" t="s">
+        <v>530</v>
+      </c>
+      <c r="I98" s="1">
+        <v>36068</v>
+      </c>
+      <c r="J98" s="1">
+        <v>44902</v>
+      </c>
+      <c r="K98" t="s">
+        <v>0</v>
+      </c>
+      <c r="L98" t="s">
+        <v>109</v>
+      </c>
+      <c r="O98" s="1">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>630</v>
+      </c>
+      <c r="B99" t="s">
+        <v>278</v>
+      </c>
+      <c r="C99" t="s">
+        <v>307</v>
+      </c>
+      <c r="D99" t="s">
+        <v>371</v>
+      </c>
+      <c r="E99" t="s">
+        <v>69</v>
+      </c>
+      <c r="F99" t="s">
+        <v>451</v>
+      </c>
+      <c r="G99" t="s">
+        <v>72</v>
+      </c>
+      <c r="H99" t="s">
+        <v>531</v>
+      </c>
+      <c r="I99" s="1">
+        <v>34961</v>
+      </c>
+      <c r="J99" s="1">
+        <v>45005</v>
+      </c>
+      <c r="K99" t="s">
+        <v>0</v>
+      </c>
+      <c r="L99" t="s">
+        <v>109</v>
+      </c>
+      <c r="O99" s="1">
+        <v>45185</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>631</v>
+      </c>
+      <c r="B100" t="s">
+        <v>279</v>
+      </c>
+      <c r="C100" t="s">
+        <v>51</v>
+      </c>
+      <c r="D100" t="s">
+        <v>372</v>
+      </c>
+      <c r="E100" t="s">
+        <v>68</v>
+      </c>
+      <c r="F100" t="s">
+        <v>452</v>
+      </c>
+      <c r="G100" t="s">
+        <v>73</v>
+      </c>
+      <c r="H100" t="s">
+        <v>532</v>
+      </c>
+      <c r="I100" s="1">
+        <v>35215</v>
+      </c>
+      <c r="J100" s="1">
+        <v>45520</v>
+      </c>
+      <c r="K100" t="s">
+        <v>0</v>
+      </c>
+      <c r="L100" t="s">
+        <v>115</v>
+      </c>
+      <c r="M100" t="s">
+        <v>119</v>
+      </c>
+      <c r="N100" t="s">
+        <v>634</v>
+      </c>
+      <c r="O100" s="1">
+        <v>45700</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
